--- a/data/trans_orig/IP07A24_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP07A24_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ADE2936F-4993-4653-BABA-C238BB17645A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B6AD4299-C505-4F7F-8BE6-492D10D4E27D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{2EEB9855-32E9-4FE4-B3C0-C34E91981879}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{596DB28E-80BC-42C3-8AC1-4ABBDBEF000D}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -65,10 +65,235 @@
     <t>lím sup IC</t>
   </si>
   <si>
+    <t>Menos de 2</t>
+  </si>
+  <si>
+    <t>Nunca</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>Casi nunca</t>
+  </si>
+  <si>
+    <t>Algunas veces</t>
+  </si>
+  <si>
+    <t>Casi siempre</t>
+  </si>
+  <si>
+    <t>31,59%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>72,07%</t>
+  </si>
+  <si>
+    <t>33,67%</t>
+  </si>
+  <si>
+    <t>11,95%</t>
+  </si>
+  <si>
+    <t>63,62%</t>
+  </si>
+  <si>
+    <t>32,84%</t>
+  </si>
+  <si>
+    <t>13,98%</t>
+  </si>
+  <si>
+    <t>54,7%</t>
+  </si>
+  <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>68,41%</t>
+  </si>
+  <si>
+    <t>27,93%</t>
+  </si>
+  <si>
+    <t>92,72%</t>
+  </si>
+  <si>
+    <t>66,33%</t>
+  </si>
+  <si>
+    <t>36,38%</t>
+  </si>
+  <si>
+    <t>88,05%</t>
+  </si>
+  <si>
+    <t>67,16%</t>
+  </si>
+  <si>
+    <t>45,3%</t>
+  </si>
+  <si>
+    <t>86,02%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2/10</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>25,34%</t>
+  </si>
+  <si>
+    <t>15,44%</t>
+  </si>
+  <si>
+    <t>38,04%</t>
+  </si>
+  <si>
+    <t>14,9%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>26,01%</t>
+  </si>
+  <si>
+    <t>20,89%</t>
+  </si>
+  <si>
+    <t>14,02%</t>
+  </si>
+  <si>
+    <t>29,63%</t>
+  </si>
+  <si>
+    <t>67,31%</t>
+  </si>
+  <si>
+    <t>53,69%</t>
+  </si>
+  <si>
+    <t>78,62%</t>
+  </si>
+  <si>
+    <t>81,79%</t>
+  </si>
+  <si>
+    <t>70,1%</t>
+  </si>
+  <si>
+    <t>89,82%</t>
+  </si>
+  <si>
+    <t>73,49%</t>
+  </si>
+  <si>
+    <t>65,02%</t>
+  </si>
+  <si>
+    <t>81,23%</t>
+  </si>
+  <si>
     <t>10/50</t>
   </si>
   <si>
-    <t>Algunas veces</t>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
   </si>
   <si>
     <t>2,86%</t>
@@ -83,42 +308,15 @@
     <t>1,46%</t>
   </si>
   <si>
-    <t>0,0%</t>
-  </si>
-  <si>
     <t>5,35%</t>
   </si>
   <si>
-    <t>2,29%</t>
-  </si>
-  <si>
     <t>1,0%</t>
   </si>
   <si>
     <t>5,44%</t>
   </si>
   <si>
-    <t>Casi nunca</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>Casi siempre</t>
-  </si>
-  <si>
     <t>22,28%</t>
   </si>
   <si>
@@ -146,24 +344,6 @@
     <t>30,65%</t>
   </si>
   <si>
-    <t>Nunca</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>Siempre</t>
-  </si>
-  <si>
     <t>74,18%</t>
   </si>
   <si>
@@ -191,123 +371,138 @@
     <t>78,07%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>25,34%</t>
-  </si>
-  <si>
-    <t>15,44%</t>
-  </si>
-  <si>
-    <t>38,04%</t>
-  </si>
-  <si>
-    <t>14,9%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>26,01%</t>
-  </si>
-  <si>
-    <t>20,89%</t>
-  </si>
-  <si>
-    <t>14,02%</t>
-  </si>
-  <si>
-    <t>29,63%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>67,31%</t>
-  </si>
-  <si>
-    <t>53,69%</t>
-  </si>
-  <si>
-    <t>78,62%</t>
-  </si>
-  <si>
-    <t>81,79%</t>
-  </si>
-  <si>
-    <t>70,1%</t>
-  </si>
-  <si>
-    <t>89,82%</t>
-  </si>
-  <si>
-    <t>73,49%</t>
-  </si>
-  <si>
-    <t>65,02%</t>
-  </si>
-  <si>
-    <t>81,23%</t>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>24,15%</t>
+  </si>
+  <si>
+    <t>15,84%</t>
+  </si>
+  <si>
+    <t>33,64%</t>
+  </si>
+  <si>
+    <t>30,91%</t>
+  </si>
+  <si>
+    <t>21,1%</t>
+  </si>
+  <si>
+    <t>49,04%</t>
+  </si>
+  <si>
+    <t>27,46%</t>
+  </si>
+  <si>
+    <t>20,69%</t>
+  </si>
+  <si>
+    <t>38,16%</t>
+  </si>
+  <si>
+    <t>75,41%</t>
+  </si>
+  <si>
+    <t>65,81%</t>
+  </si>
+  <si>
+    <t>83,41%</t>
+  </si>
+  <si>
+    <t>64,52%</t>
+  </si>
+  <si>
+    <t>46,31%</t>
+  </si>
+  <si>
+    <t>74,37%</t>
+  </si>
+  <si>
+    <t>70,08%</t>
+  </si>
+  <si>
+    <t>59,59%</t>
+  </si>
+  <si>
+    <t>77,0%</t>
   </si>
   <si>
     <t>Capitales</t>
   </si>
   <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
     <t>1,88%</t>
   </si>
   <si>
@@ -329,15 +524,6 @@
     <t>4,15%</t>
   </si>
   <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
     <t>21,18%</t>
   </si>
   <si>
@@ -365,24 +551,6 @@
     <t>28,46%</t>
   </si>
   <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
     <t>76,06%</t>
   </si>
   <si>
@@ -410,172 +578,43 @@
     <t>80,27%</t>
   </si>
   <si>
-    <t>Menos de 2</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>31,59%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>72,07%</t>
-  </si>
-  <si>
-    <t>33,67%</t>
-  </si>
-  <si>
-    <t>11,95%</t>
-  </si>
-  <si>
-    <t>63,62%</t>
-  </si>
-  <si>
-    <t>32,84%</t>
-  </si>
-  <si>
-    <t>13,98%</t>
-  </si>
-  <si>
-    <t>54,7%</t>
-  </si>
-  <si>
-    <t>68,41%</t>
-  </si>
-  <si>
-    <t>27,93%</t>
-  </si>
-  <si>
-    <t>92,72%</t>
-  </si>
-  <si>
-    <t>66,33%</t>
-  </si>
-  <si>
-    <t>36,38%</t>
-  </si>
-  <si>
-    <t>88,05%</t>
-  </si>
-  <si>
-    <t>67,16%</t>
-  </si>
-  <si>
-    <t>45,3%</t>
-  </si>
-  <si>
-    <t>86,02%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>24,15%</t>
-  </si>
-  <si>
-    <t>15,84%</t>
-  </si>
-  <si>
-    <t>33,64%</t>
-  </si>
-  <si>
-    <t>30,91%</t>
-  </si>
-  <si>
-    <t>21,1%</t>
-  </si>
-  <si>
-    <t>49,04%</t>
-  </si>
-  <si>
-    <t>27,46%</t>
-  </si>
-  <si>
-    <t>20,69%</t>
-  </si>
-  <si>
-    <t>38,16%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>75,41%</t>
-  </si>
-  <si>
-    <t>65,81%</t>
-  </si>
-  <si>
-    <t>83,41%</t>
-  </si>
-  <si>
-    <t>64,52%</t>
-  </si>
-  <si>
-    <t>46,31%</t>
-  </si>
-  <si>
-    <t>74,37%</t>
-  </si>
-  <si>
-    <t>70,08%</t>
-  </si>
-  <si>
-    <t>59,59%</t>
-  </si>
-  <si>
-    <t>77,0%</t>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
   </si>
   <si>
     <t>2,22%</t>
@@ -599,33 +638,9 @@
     <t>2,08%</t>
   </si>
   <si>
-    <t>1,32%</t>
-  </si>
-  <si>
     <t>3,14%</t>
   </si>
   <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
     <t>23,14%</t>
   </si>
   <si>
@@ -651,21 +666,6 @@
   </si>
   <si>
     <t>28,14%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
   </si>
   <si>
     <t>73,67%</t>
@@ -1084,7 +1084,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7A9C8A6-26CC-441B-8B11-3B051576E568}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{388459EF-79C8-4050-8597-96DA63297CD1}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1202,10 +1202,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>4222</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1217,238 +1217,238 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" s="7">
-        <v>1495</v>
+        <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="M4" s="7">
+        <v>0</v>
+      </c>
+      <c r="N4" s="7">
+        <v>0</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>15</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="M4" s="7">
-        <v>7</v>
-      </c>
-      <c r="N4" s="7">
-        <v>5718</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" s="7">
-        <v>1012</v>
+        <v>0</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="F5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="7">
+        <v>0</v>
+      </c>
+      <c r="I5" s="7">
+        <v>0</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="M5" s="7">
+        <v>0</v>
+      </c>
+      <c r="N5" s="7">
+        <v>0</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>15</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H5" s="7">
-        <v>1</v>
-      </c>
-      <c r="I5" s="7">
-        <v>593</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="M5" s="7">
-        <v>2</v>
-      </c>
-      <c r="N5" s="7">
-        <v>1605</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="C6" s="7">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="D6" s="7">
-        <v>32919</v>
+        <v>0</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="H6" s="7">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="I6" s="7">
-        <v>28842</v>
+        <v>0</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="M6" s="7">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="N6" s="7">
-        <v>61761</v>
+        <v>0</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="C7" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D7" s="7">
-        <v>0</v>
+        <v>2071</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="H7" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I7" s="7">
-        <v>0</v>
+        <v>3289</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="M7" s="7">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="N7" s="7">
-        <v>0</v>
+        <v>5360</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="C8" s="7">
-        <v>135</v>
+        <v>6</v>
       </c>
       <c r="D8" s="7">
-        <v>109616</v>
+        <v>4484</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="H8" s="7">
-        <v>96</v>
+        <v>11</v>
       </c>
       <c r="I8" s="7">
-        <v>71308</v>
+        <v>6479</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="M8" s="7">
-        <v>231</v>
+        <v>17</v>
       </c>
       <c r="N8" s="7">
-        <v>180924</v>
+        <v>10962</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1457,108 +1457,108 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>174</v>
+        <v>9</v>
       </c>
       <c r="D9" s="7">
-        <v>147769</v>
+        <v>6555</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="H9" s="7">
-        <v>136</v>
+        <v>16</v>
       </c>
       <c r="I9" s="7">
-        <v>102239</v>
+        <v>9768</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="M9" s="7">
-        <v>310</v>
+        <v>25</v>
       </c>
       <c r="N9" s="7">
-        <v>250008</v>
+        <v>16322</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D10" s="7">
-        <v>2881</v>
+        <v>863</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
       </c>
       <c r="I10" s="7">
-        <v>1003</v>
+        <v>705</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="M10" s="7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N10" s="7">
-        <v>3884</v>
+        <v>1567</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C11" s="7">
         <v>2</v>
@@ -1567,13 +1567,13 @@
         <v>1346</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -1582,13 +1582,13 @@
         <v>0</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="M11" s="7">
         <v>2</v>
@@ -1597,121 +1597,121 @@
         <v>1346</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="C12" s="7">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="D12" s="7">
-        <v>17558</v>
+        <v>2881</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="H12" s="7">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="I12" s="7">
-        <v>7690</v>
+        <v>1003</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>69</v>
+        <v>11</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="M12" s="7">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="N12" s="7">
-        <v>25249</v>
+        <v>3884</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="C13" s="7">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D13" s="7">
-        <v>863</v>
+        <v>17558</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>15</v>
+        <v>59</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="H13" s="7">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="I13" s="7">
-        <v>705</v>
+        <v>7690</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>15</v>
+        <v>62</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="M13" s="7">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="N13" s="7">
-        <v>1567</v>
+        <v>25249</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>15</v>
+        <v>65</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="C14" s="7">
         <v>54</v>
@@ -1720,13 +1720,13 @@
         <v>46630</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="H14" s="7">
         <v>61</v>
@@ -1735,13 +1735,13 @@
         <v>42200</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="M14" s="7">
         <v>115</v>
@@ -1750,13 +1750,13 @@
         <v>88830</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1771,13 +1771,13 @@
         <v>69278</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="H15" s="7">
         <v>73</v>
@@ -1786,13 +1786,13 @@
         <v>51598</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="M15" s="7">
         <v>151</v>
@@ -1801,270 +1801,270 @@
         <v>120876</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D16" s="7">
-        <v>1746</v>
+        <v>0</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>90</v>
+        <v>11</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="H16" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" s="7">
-        <v>964</v>
+        <v>0</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>92</v>
+        <v>11</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="M16" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N16" s="7">
-        <v>2710</v>
+        <v>0</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>94</v>
+        <v>11</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>95</v>
+        <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17" s="7">
-        <v>0</v>
+        <v>1012</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>15</v>
+        <v>80</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="H17" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17" s="7">
-        <v>0</v>
+        <v>593</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>15</v>
+        <v>82</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="M17" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N17" s="7">
-        <v>0</v>
+        <v>1605</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>15</v>
+        <v>84</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="C18" s="7">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="D18" s="7">
-        <v>19695</v>
+        <v>4222</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="H18" s="7">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="I18" s="7">
-        <v>23399</v>
+        <v>1495</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>104</v>
+        <v>11</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="M18" s="7">
-        <v>55</v>
+        <v>7</v>
       </c>
       <c r="N18" s="7">
-        <v>43094</v>
+        <v>5718</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>106</v>
+        <v>85</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="C19" s="7">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="D19" s="7">
-        <v>821</v>
+        <v>32919</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>15</v>
+        <v>94</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="H19" s="7">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="I19" s="7">
-        <v>692</v>
+        <v>28842</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>15</v>
+        <v>97</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="M19" s="7">
-        <v>2</v>
+        <v>70</v>
       </c>
       <c r="N19" s="7">
-        <v>1513</v>
+        <v>61761</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>15</v>
+        <v>100</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="C20" s="7">
-        <v>89</v>
+        <v>135</v>
       </c>
       <c r="D20" s="7">
-        <v>70724</v>
+        <v>109616</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="H20" s="7">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="I20" s="7">
-        <v>74134</v>
+        <v>71308</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="M20" s="7">
-        <v>188</v>
+        <v>231</v>
       </c>
       <c r="N20" s="7">
-        <v>144859</v>
+        <v>180924</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2073,54 +2073,54 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>117</v>
+        <v>174</v>
       </c>
       <c r="D21" s="7">
-        <v>92986</v>
+        <v>147769</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="H21" s="7">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="I21" s="7">
-        <v>99190</v>
+        <v>102239</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="M21" s="7">
-        <v>248</v>
+        <v>310</v>
       </c>
       <c r="N21" s="7">
-        <v>192176</v>
+        <v>250008</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2132,13 +2132,13 @@
         <v>0</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -2147,13 +2147,13 @@
         <v>0</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -2162,19 +2162,19 @@
         <v>0</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C23" s="7">
         <v>0</v>
@@ -2183,196 +2183,196 @@
         <v>0</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="H23" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23" s="7">
-        <v>0</v>
+        <v>993</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>15</v>
+        <v>115</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="M23" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N23" s="7">
-        <v>0</v>
+        <v>993</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>15</v>
+        <v>117</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="C24" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D24" s="7">
-        <v>2071</v>
+        <v>454</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>129</v>
+        <v>11</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="H24" s="7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I24" s="7">
-        <v>3289</v>
+        <v>3469</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="M24" s="7">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N24" s="7">
-        <v>5360</v>
+        <v>3923</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="C25" s="7">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="D25" s="7">
-        <v>0</v>
+        <v>24627</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>15</v>
+        <v>127</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>37</v>
+        <v>128</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="H25" s="7">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="I25" s="7">
-        <v>0</v>
+        <v>30225</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>15</v>
+        <v>130</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>37</v>
+        <v>131</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="M25" s="7">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="N25" s="7">
-        <v>0</v>
+        <v>54852</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>15</v>
+        <v>133</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>37</v>
+        <v>134</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="C26" s="7">
-        <v>6</v>
+        <v>81</v>
       </c>
       <c r="D26" s="7">
-        <v>4484</v>
+        <v>76906</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="G26" s="7" t="s">
+      <c r="H26" s="7">
+        <v>84</v>
+      </c>
+      <c r="I26" s="7">
+        <v>63081</v>
+      </c>
+      <c r="J26" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="H26" s="7">
-        <v>11</v>
-      </c>
-      <c r="I26" s="7">
-        <v>6479</v>
-      </c>
-      <c r="J26" s="7" t="s">
+      <c r="K26" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="L26" s="7" t="s">
+      <c r="M26" s="7">
+        <v>165</v>
+      </c>
+      <c r="N26" s="7">
+        <v>139987</v>
+      </c>
+      <c r="O26" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="M26" s="7">
-        <v>17</v>
-      </c>
-      <c r="N26" s="7">
-        <v>10962</v>
-      </c>
-      <c r="O26" s="7" t="s">
+      <c r="P26" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2381,54 +2381,54 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>9</v>
+        <v>110</v>
       </c>
       <c r="D27" s="7">
-        <v>6555</v>
+        <v>101987</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="H27" s="7">
-        <v>16</v>
+        <v>119</v>
       </c>
       <c r="I27" s="7">
-        <v>9768</v>
+        <v>97768</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="M27" s="7">
-        <v>25</v>
+        <v>229</v>
       </c>
       <c r="N27" s="7">
-        <v>16322</v>
+        <v>199755</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -2437,52 +2437,52 @@
         <v>1</v>
       </c>
       <c r="D28" s="7">
-        <v>454</v>
+        <v>821</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="F28" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G28" s="7" t="s">
+      <c r="H28" s="7">
+        <v>1</v>
+      </c>
+      <c r="I28" s="7">
+        <v>692</v>
+      </c>
+      <c r="J28" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="H28" s="7">
-        <v>6</v>
-      </c>
-      <c r="I28" s="7">
-        <v>3469</v>
-      </c>
-      <c r="J28" s="7" t="s">
+      <c r="K28" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="K28" s="7" t="s">
+      <c r="M28" s="7">
+        <v>2</v>
+      </c>
+      <c r="N28" s="7">
+        <v>1513</v>
+      </c>
+      <c r="O28" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="L28" s="7" t="s">
+      <c r="P28" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="M28" s="7">
-        <v>7</v>
-      </c>
-      <c r="N28" s="7">
-        <v>3923</v>
-      </c>
-      <c r="O28" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C29" s="7">
         <v>0</v>
@@ -2491,142 +2491,142 @@
         <v>0</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="H29" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29" s="7">
-        <v>993</v>
+        <v>0</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>156</v>
+        <v>11</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="M29" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N29" s="7">
-        <v>993</v>
+        <v>0</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>158</v>
+        <v>11</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="C30" s="7">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="D30" s="7">
-        <v>24627</v>
+        <v>1746</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="H30" s="7">
+        <v>1</v>
+      </c>
+      <c r="I30" s="7">
+        <v>964</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L30" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="M30" s="7">
+        <v>3</v>
+      </c>
+      <c r="N30" s="7">
+        <v>2710</v>
+      </c>
+      <c r="O30" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="H30" s="7">
-        <v>28</v>
-      </c>
-      <c r="I30" s="7">
-        <v>30225</v>
-      </c>
-      <c r="J30" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="M30" s="7">
-        <v>56</v>
-      </c>
-      <c r="N30" s="7">
-        <v>54852</v>
-      </c>
-      <c r="O30" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="C31" s="7">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="D31" s="7">
-        <v>0</v>
+        <v>19695</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>15</v>
+        <v>162</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>37</v>
+        <v>163</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="H31" s="7">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="I31" s="7">
-        <v>0</v>
+        <v>23399</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>15</v>
+        <v>165</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>37</v>
+        <v>166</v>
       </c>
       <c r="L31" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="M31" s="7">
+        <v>55</v>
+      </c>
+      <c r="N31" s="7">
+        <v>43094</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="P31" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="M31" s="7">
-        <v>0</v>
-      </c>
-      <c r="N31" s="7">
-        <v>0</v>
-      </c>
-      <c r="O31" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>37</v>
       </c>
       <c r="Q31" s="7" t="s">
         <v>170</v>
@@ -2635,13 +2635,13 @@
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="C32" s="7">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="D32" s="7">
-        <v>76906</v>
+        <v>70724</v>
       </c>
       <c r="E32" s="7" t="s">
         <v>171</v>
@@ -2653,10 +2653,10 @@
         <v>173</v>
       </c>
       <c r="H32" s="7">
-        <v>84</v>
+        <v>99</v>
       </c>
       <c r="I32" s="7">
-        <v>63081</v>
+        <v>74134</v>
       </c>
       <c r="J32" s="7" t="s">
         <v>174</v>
@@ -2668,10 +2668,10 @@
         <v>176</v>
       </c>
       <c r="M32" s="7">
-        <v>165</v>
+        <v>188</v>
       </c>
       <c r="N32" s="7">
-        <v>139987</v>
+        <v>144859</v>
       </c>
       <c r="O32" s="7" t="s">
         <v>177</v>
@@ -2689,49 +2689,49 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="D33" s="7">
-        <v>101987</v>
+        <v>92986</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="H33" s="7">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="I33" s="7">
-        <v>97768</v>
+        <v>99190</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="M33" s="7">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="N33" s="7">
-        <v>199755</v>
+        <v>192176</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -2742,55 +2742,55 @@
         <v>10</v>
       </c>
       <c r="C34" s="7">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D34" s="7">
-        <v>9304</v>
+        <v>1684</v>
       </c>
       <c r="E34" s="7" t="s">
         <v>180</v>
       </c>
       <c r="F34" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G34" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="G34" s="7" t="s">
+      <c r="H34" s="7">
+        <v>2</v>
+      </c>
+      <c r="I34" s="7">
+        <v>1396</v>
+      </c>
+      <c r="J34" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="H34" s="7">
-        <v>10</v>
-      </c>
-      <c r="I34" s="7">
-        <v>6932</v>
-      </c>
-      <c r="J34" s="7" t="s">
+      <c r="K34" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L34" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="K34" s="7" t="s">
+      <c r="M34" s="7">
+        <v>4</v>
+      </c>
+      <c r="N34" s="7">
+        <v>3080</v>
+      </c>
+      <c r="O34" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="P34" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="L34" s="7" t="s">
+      <c r="Q34" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="M34" s="7">
-        <v>22</v>
-      </c>
-      <c r="N34" s="7">
-        <v>16236</v>
-      </c>
-      <c r="O34" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="P34" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C35" s="7">
         <v>3</v>
@@ -2799,13 +2799,13 @@
         <v>2358</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>169</v>
+        <v>113</v>
       </c>
       <c r="H35" s="7">
         <v>2</v>
@@ -2814,13 +2814,13 @@
         <v>1586</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="M35" s="7">
         <v>5</v>
@@ -2829,109 +2829,109 @@
         <v>3944</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="5" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="C36" s="7">
-        <v>106</v>
+        <v>12</v>
       </c>
       <c r="D36" s="7">
-        <v>96870</v>
+        <v>9304</v>
       </c>
       <c r="E36" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="H36" s="7">
+        <v>10</v>
+      </c>
+      <c r="I36" s="7">
+        <v>6932</v>
+      </c>
+      <c r="J36" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="F36" s="7" t="s">
+      <c r="K36" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="G36" s="7" t="s">
+      <c r="L36" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="H36" s="7">
-        <v>110</v>
-      </c>
-      <c r="I36" s="7">
-        <v>93446</v>
-      </c>
-      <c r="J36" s="7" t="s">
+      <c r="M36" s="7">
+        <v>22</v>
+      </c>
+      <c r="N36" s="7">
+        <v>16236</v>
+      </c>
+      <c r="O36" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="K36" s="7" t="s">
+      <c r="P36" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q36" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="M36" s="7">
-        <v>216</v>
-      </c>
-      <c r="N36" s="7">
-        <v>190315</v>
-      </c>
-      <c r="O36" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="P36" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="C37" s="7">
-        <v>2</v>
+        <v>106</v>
       </c>
       <c r="D37" s="7">
-        <v>1684</v>
+        <v>96870</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="G37" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="H37" s="7">
+        <v>110</v>
+      </c>
+      <c r="I37" s="7">
+        <v>93446</v>
+      </c>
+      <c r="J37" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="K37" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="F37" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G37" s="7" t="s">
+      <c r="L37" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="H37" s="7">
-        <v>2</v>
-      </c>
-      <c r="I37" s="7">
-        <v>1396</v>
-      </c>
-      <c r="J37" s="7" t="s">
+      <c r="M37" s="7">
+        <v>216</v>
+      </c>
+      <c r="N37" s="7">
+        <v>190315</v>
+      </c>
+      <c r="O37" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="K37" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="M37" s="7">
-        <v>4</v>
-      </c>
-      <c r="N37" s="7">
-        <v>3080</v>
-      </c>
-      <c r="O37" s="7" t="s">
-        <v>205</v>
       </c>
       <c r="P37" s="7" t="s">
         <v>208</v>
@@ -2943,7 +2943,7 @@
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="C38" s="7">
         <v>365</v>
@@ -3003,13 +3003,13 @@
         <v>418575</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="H39" s="7">
         <v>475</v>
@@ -3018,13 +3018,13 @@
         <v>360562</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="M39" s="7">
         <v>963</v>
@@ -3033,13 +3033,13 @@
         <v>779138</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP07A24_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP07A24_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B6AD4299-C505-4F7F-8BE6-492D10D4E27D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{623E852F-A25D-4344-9B4E-2F470945FC8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{596DB28E-80BC-42C3-8AC1-4ABBDBEF000D}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{C3065BC8-EC22-4E64-BBF2-BFD5CCF90155}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="219">
   <si>
     <t>Menores según frecuencia de haberse divertido con sus amigos en 2023 (Tasa respuesta: 50,16%)</t>
   </si>
@@ -68,207 +68,300 @@
     <t>Menos de 2</t>
   </si>
   <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>68,41%</t>
+  </si>
+  <si>
+    <t>27,93%</t>
+  </si>
+  <si>
+    <t>92,72%</t>
+  </si>
+  <si>
+    <t>66,33%</t>
+  </si>
+  <si>
+    <t>36,38%</t>
+  </si>
+  <si>
+    <t>88,05%</t>
+  </si>
+  <si>
+    <t>67,16%</t>
+  </si>
+  <si>
+    <t>45,3%</t>
+  </si>
+  <si>
+    <t>86,02%</t>
+  </si>
+  <si>
+    <t>Casi siempre</t>
+  </si>
+  <si>
+    <t>31,59%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>72,07%</t>
+  </si>
+  <si>
+    <t>33,67%</t>
+  </si>
+  <si>
+    <t>11,95%</t>
+  </si>
+  <si>
+    <t>63,62%</t>
+  </si>
+  <si>
+    <t>32,84%</t>
+  </si>
+  <si>
+    <t>13,98%</t>
+  </si>
+  <si>
+    <t>54,7%</t>
+  </si>
+  <si>
+    <t>Algunas veces</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>Casi nunca</t>
+  </si>
+  <si>
     <t>Nunca</t>
   </si>
   <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>Casi nunca</t>
-  </si>
-  <si>
-    <t>Algunas veces</t>
-  </si>
-  <si>
-    <t>Casi siempre</t>
-  </si>
-  <si>
-    <t>31,59%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>72,07%</t>
-  </si>
-  <si>
-    <t>33,67%</t>
-  </si>
-  <si>
-    <t>11,95%</t>
-  </si>
-  <si>
-    <t>63,62%</t>
-  </si>
-  <si>
-    <t>32,84%</t>
-  </si>
-  <si>
-    <t>13,98%</t>
-  </si>
-  <si>
-    <t>54,7%</t>
-  </si>
-  <si>
-    <t>Siempre</t>
-  </si>
-  <si>
-    <t>68,41%</t>
-  </si>
-  <si>
-    <t>27,93%</t>
-  </si>
-  <si>
-    <t>92,72%</t>
-  </si>
-  <si>
-    <t>66,33%</t>
-  </si>
-  <si>
-    <t>36,38%</t>
-  </si>
-  <si>
-    <t>88,05%</t>
-  </si>
-  <si>
-    <t>67,16%</t>
-  </si>
-  <si>
-    <t>45,3%</t>
-  </si>
-  <si>
-    <t>86,02%</t>
-  </si>
-  <si>
     <t>100%</t>
   </si>
   <si>
     <t>2/10</t>
   </si>
   <si>
+    <t>67,31%</t>
+  </si>
+  <si>
+    <t>53,48%</t>
+  </si>
+  <si>
+    <t>80,29%</t>
+  </si>
+  <si>
+    <t>81,79%</t>
+  </si>
+  <si>
+    <t>69,88%</t>
+  </si>
+  <si>
+    <t>90,46%</t>
+  </si>
+  <si>
+    <t>73,49%</t>
+  </si>
+  <si>
+    <t>64,29%</t>
+  </si>
+  <si>
+    <t>81,03%</t>
+  </si>
+  <si>
+    <t>25,34%</t>
+  </si>
+  <si>
+    <t>14,22%</t>
+  </si>
+  <si>
+    <t>38,69%</t>
+  </si>
+  <si>
+    <t>14,9%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>26,01%</t>
+  </si>
+  <si>
+    <t>20,89%</t>
+  </si>
+  <si>
+    <t>13,83%</t>
+  </si>
+  <si>
+    <t>29,61%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>11,05%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>11,09%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
     <t>1,25%</t>
   </si>
   <si>
-    <t>7,44%</t>
+    <t>6,37%</t>
   </si>
   <si>
     <t>1,37%</t>
   </si>
   <si>
-    <t>6,8%</t>
+    <t>7,14%</t>
   </si>
   <si>
     <t>1,3%</t>
   </si>
   <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>25,34%</t>
-  </si>
-  <si>
-    <t>15,44%</t>
-  </si>
-  <si>
-    <t>38,04%</t>
-  </si>
-  <si>
-    <t>14,9%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>26,01%</t>
-  </si>
-  <si>
-    <t>20,89%</t>
-  </si>
-  <si>
-    <t>14,02%</t>
-  </si>
-  <si>
-    <t>29,63%</t>
-  </si>
-  <si>
-    <t>67,31%</t>
-  </si>
-  <si>
-    <t>53,69%</t>
-  </si>
-  <si>
-    <t>78,62%</t>
-  </si>
-  <si>
-    <t>81,79%</t>
-  </si>
-  <si>
-    <t>70,1%</t>
-  </si>
-  <si>
-    <t>89,82%</t>
-  </si>
-  <si>
-    <t>73,49%</t>
-  </si>
-  <si>
-    <t>65,02%</t>
-  </si>
-  <si>
-    <t>81,23%</t>
+    <t>4,68%</t>
   </si>
   <si>
     <t>10/50</t>
   </si>
   <si>
+    <t>74,18%</t>
+  </si>
+  <si>
+    <t>64,97%</t>
+  </si>
+  <si>
+    <t>80,68%</t>
+  </si>
+  <si>
+    <t>69,75%</t>
+  </si>
+  <si>
+    <t>60,92%</t>
+  </si>
+  <si>
+    <t>77,53%</t>
+  </si>
+  <si>
+    <t>72,37%</t>
+  </si>
+  <si>
+    <t>65,73%</t>
+  </si>
+  <si>
+    <t>77,64%</t>
+  </si>
+  <si>
+    <t>22,28%</t>
+  </si>
+  <si>
+    <t>16,52%</t>
+  </si>
+  <si>
+    <t>31,01%</t>
+  </si>
+  <si>
+    <t>28,21%</t>
+  </si>
+  <si>
+    <t>20,15%</t>
+  </si>
+  <si>
+    <t>36,65%</t>
+  </si>
+  <si>
+    <t>24,7%</t>
+  </si>
+  <si>
+    <t>19,66%</t>
+  </si>
+  <si>
+    <t>31,41%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
     <t>1,1%</t>
   </si>
   <si>
@@ -278,316 +371,319 @@
     <t>0,62%</t>
   </si>
   <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>22,28%</t>
-  </si>
-  <si>
-    <t>15,58%</t>
-  </si>
-  <si>
-    <t>31,66%</t>
-  </si>
-  <si>
-    <t>28,21%</t>
-  </si>
-  <si>
-    <t>20,7%</t>
-  </si>
-  <si>
-    <t>37,18%</t>
-  </si>
-  <si>
-    <t>24,7%</t>
-  </si>
-  <si>
-    <t>19,38%</t>
-  </si>
-  <si>
-    <t>30,65%</t>
-  </si>
-  <si>
-    <t>74,18%</t>
-  </si>
-  <si>
-    <t>65,23%</t>
-  </si>
-  <si>
-    <t>81,32%</t>
-  </si>
-  <si>
-    <t>69,75%</t>
-  </si>
-  <si>
-    <t>60,39%</t>
-  </si>
-  <si>
-    <t>77,58%</t>
-  </si>
-  <si>
-    <t>72,37%</t>
-  </si>
-  <si>
-    <t>66,19%</t>
-  </si>
-  <si>
-    <t>78,07%</t>
-  </si>
-  <si>
     <t>mas de 50</t>
   </si>
   <si>
+    <t>75,41%</t>
+  </si>
+  <si>
+    <t>65,71%</t>
+  </si>
+  <si>
+    <t>83,0%</t>
+  </si>
+  <si>
+    <t>64,52%</t>
+  </si>
+  <si>
+    <t>47,72%</t>
+  </si>
+  <si>
+    <t>75,15%</t>
+  </si>
+  <si>
+    <t>70,08%</t>
+  </si>
+  <si>
+    <t>59,45%</t>
+  </si>
+  <si>
+    <t>77,1%</t>
+  </si>
+  <si>
+    <t>24,15%</t>
+  </si>
+  <si>
+    <t>16,92%</t>
+  </si>
+  <si>
+    <t>33,87%</t>
+  </si>
+  <si>
+    <t>30,91%</t>
+  </si>
+  <si>
+    <t>20,52%</t>
+  </si>
+  <si>
+    <t>50,11%</t>
+  </si>
+  <si>
+    <t>27,46%</t>
+  </si>
+  <si>
+    <t>20,78%</t>
+  </si>
+  <si>
+    <t>39,12%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
     <t>1,73%</t>
   </si>
   <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
     <t>1,6%</t>
   </si>
   <si>
     <t>0,83%</t>
   </si>
   <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>24,15%</t>
-  </si>
-  <si>
-    <t>15,84%</t>
-  </si>
-  <si>
-    <t>33,64%</t>
-  </si>
-  <si>
-    <t>30,91%</t>
-  </si>
-  <si>
-    <t>21,1%</t>
-  </si>
-  <si>
-    <t>49,04%</t>
-  </si>
-  <si>
-    <t>27,46%</t>
-  </si>
-  <si>
-    <t>20,69%</t>
-  </si>
-  <si>
-    <t>38,16%</t>
-  </si>
-  <si>
-    <t>75,41%</t>
-  </si>
-  <si>
-    <t>65,81%</t>
-  </si>
-  <si>
-    <t>83,41%</t>
-  </si>
-  <si>
-    <t>64,52%</t>
-  </si>
-  <si>
-    <t>46,31%</t>
-  </si>
-  <si>
-    <t>74,37%</t>
-  </si>
-  <si>
-    <t>70,08%</t>
-  </si>
-  <si>
-    <t>59,59%</t>
-  </si>
-  <si>
-    <t>77,0%</t>
-  </si>
-  <si>
     <t>Capitales</t>
   </si>
   <si>
+    <t>76,06%</t>
+  </si>
+  <si>
+    <t>66,79%</t>
+  </si>
+  <si>
+    <t>83,15%</t>
+  </si>
+  <si>
+    <t>74,74%</t>
+  </si>
+  <si>
+    <t>66,93%</t>
+  </si>
+  <si>
+    <t>82,03%</t>
+  </si>
+  <si>
+    <t>75,38%</t>
+  </si>
+  <si>
+    <t>69,14%</t>
+  </si>
+  <si>
+    <t>80,99%</t>
+  </si>
+  <si>
+    <t>21,18%</t>
+  </si>
+  <si>
+    <t>14,33%</t>
+  </si>
+  <si>
+    <t>29,68%</t>
+  </si>
+  <si>
+    <t>23,59%</t>
+  </si>
+  <si>
+    <t>16,25%</t>
+  </si>
+  <si>
+    <t>31,46%</t>
+  </si>
+  <si>
+    <t>22,42%</t>
+  </si>
+  <si>
+    <t>17,41%</t>
+  </si>
+  <si>
+    <t>28,5%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
     <t>0,88%</t>
   </si>
   <si>
-    <t>3,8%</t>
+    <t>4,29%</t>
   </si>
   <si>
     <t>0,7%</t>
   </si>
   <si>
-    <t>3,86%</t>
+    <t>4,02%</t>
   </si>
   <si>
     <t>0,79%</t>
   </si>
   <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>21,18%</t>
-  </si>
-  <si>
-    <t>14,19%</t>
-  </si>
-  <si>
-    <t>28,92%</t>
-  </si>
-  <si>
-    <t>23,59%</t>
-  </si>
-  <si>
-    <t>16,9%</t>
-  </si>
-  <si>
-    <t>31,58%</t>
-  </si>
-  <si>
-    <t>22,42%</t>
-  </si>
-  <si>
-    <t>17,63%</t>
-  </si>
-  <si>
-    <t>28,46%</t>
-  </si>
-  <si>
-    <t>76,06%</t>
-  </si>
-  <si>
-    <t>68,04%</t>
-  </si>
-  <si>
-    <t>83,7%</t>
-  </si>
-  <si>
-    <t>74,74%</t>
-  </si>
-  <si>
-    <t>66,52%</t>
-  </si>
-  <si>
-    <t>82,01%</t>
-  </si>
-  <si>
-    <t>75,38%</t>
-  </si>
-  <si>
-    <t>69,29%</t>
-  </si>
-  <si>
-    <t>80,27%</t>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>73,67%</t>
+  </si>
+  <si>
+    <t>69,19%</t>
+  </si>
+  <si>
+    <t>78,11%</t>
+  </si>
+  <si>
+    <t>71,33%</t>
+  </si>
+  <si>
+    <t>65,6%</t>
+  </si>
+  <si>
+    <t>75,89%</t>
+  </si>
+  <si>
+    <t>72,59%</t>
+  </si>
+  <si>
+    <t>68,82%</t>
+  </si>
+  <si>
+    <t>75,56%</t>
+  </si>
+  <si>
+    <t>23,14%</t>
+  </si>
+  <si>
+    <t>19,19%</t>
+  </si>
+  <si>
+    <t>27,6%</t>
+  </si>
+  <si>
+    <t>25,92%</t>
+  </si>
+  <si>
+    <t>21,21%</t>
+  </si>
+  <si>
+    <t>31,52%</t>
+  </si>
+  <si>
+    <t>24,43%</t>
+  </si>
+  <si>
+    <t>21,64%</t>
+  </si>
+  <si>
+    <t>28,53%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
   </si>
   <si>
     <t>0,4%</t>
   </si>
   <si>
-    <t>1,34%</t>
+    <t>1,42%</t>
   </si>
   <si>
     <t>0,39%</t>
   </si>
   <si>
-    <t>1,32%</t>
+    <t>1,33%</t>
   </si>
   <si>
     <t>0,09%</t>
@@ -596,103 +692,7 @@
     <t>0,92%</t>
   </si>
   <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>23,14%</t>
-  </si>
-  <si>
-    <t>18,62%</t>
-  </si>
-  <si>
-    <t>27,68%</t>
-  </si>
-  <si>
-    <t>25,92%</t>
-  </si>
-  <si>
-    <t>21,61%</t>
-  </si>
-  <si>
-    <t>32,34%</t>
-  </si>
-  <si>
-    <t>24,43%</t>
-  </si>
-  <si>
-    <t>21,45%</t>
-  </si>
-  <si>
-    <t>28,14%</t>
-  </si>
-  <si>
-    <t>73,67%</t>
-  </si>
-  <si>
-    <t>69,16%</t>
-  </si>
-  <si>
-    <t>78,52%</t>
-  </si>
-  <si>
-    <t>71,33%</t>
-  </si>
-  <si>
-    <t>65,15%</t>
-  </si>
-  <si>
-    <t>75,92%</t>
-  </si>
-  <si>
-    <t>72,59%</t>
-  </si>
-  <si>
-    <t>69,2%</t>
-  </si>
-  <si>
-    <t>75,68%</t>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
   </si>
 </sst>
 </file>
@@ -703,7 +703,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -799,39 +799,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -883,7 +883,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -994,13 +994,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -1009,6 +1002,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1073,19 +1073,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{388459EF-79C8-4050-8597-96DA63297CD1}">
-  <dimension ref="A1:Q39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52182124-B7E0-4CF5-8F88-6D2BC62F4A3E}">
+  <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1202,10 +1222,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>4484</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1217,91 +1237,91 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>6479</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>10962</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>2071</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I5" s="7">
-        <v>0</v>
+        <v>3289</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="N5" s="7">
-        <v>0</v>
+        <v>5360</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C6" s="7">
         <v>0</v>
@@ -1310,13 +1330,13 @@
         <v>0</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -1325,13 +1345,13 @@
         <v>0</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -1340,115 +1360,115 @@
         <v>0</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="C7" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D7" s="7">
-        <v>2071</v>
+        <v>0</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="H7" s="7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I7" s="7">
-        <v>3289</v>
+        <v>0</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="M7" s="7">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="N7" s="7">
-        <v>5360</v>
+        <v>0</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="C8" s="7">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D8" s="7">
-        <v>4484</v>
+        <v>0</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H8" s="7">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="I8" s="7">
-        <v>6479</v>
+        <v>0</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>32</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>33</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>34</v>
       </c>
       <c r="M8" s="7">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="N8" s="7">
-        <v>10962</v>
+        <v>0</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>35</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1510,106 +1530,106 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>1</v>
+        <v>54</v>
       </c>
       <c r="D10" s="7">
-        <v>863</v>
+        <v>46630</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>40</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H10" s="7">
-        <v>1</v>
+        <v>61</v>
       </c>
       <c r="I10" s="7">
-        <v>705</v>
+        <v>42200</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="M10" s="7">
-        <v>2</v>
+        <v>115</v>
       </c>
       <c r="N10" s="7">
-        <v>1567</v>
+        <v>88830</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="D11" s="7">
-        <v>1346</v>
+        <v>17558</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="H11" s="7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I11" s="7">
-        <v>0</v>
+        <v>7690</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>11</v>
+        <v>52</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="M11" s="7">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="N11" s="7">
-        <v>1346</v>
+        <v>25249</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>11</v>
+        <v>56</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C12" s="7">
         <v>4</v>
@@ -1618,13 +1638,13 @@
         <v>2881</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="H12" s="7">
         <v>1</v>
@@ -1633,13 +1653,13 @@
         <v>1003</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="M12" s="7">
         <v>5</v>
@@ -1648,115 +1668,115 @@
         <v>3884</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="C13" s="7">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="D13" s="7">
-        <v>17558</v>
+        <v>1346</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="H13" s="7">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I13" s="7">
-        <v>7690</v>
+        <v>0</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="M13" s="7">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="N13" s="7">
-        <v>25249</v>
+        <v>1346</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>65</v>
+        <v>31</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="C14" s="7">
-        <v>54</v>
+        <v>1</v>
       </c>
       <c r="D14" s="7">
-        <v>46630</v>
+        <v>863</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>68</v>
+        <v>31</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H14" s="7">
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="I14" s="7">
-        <v>42200</v>
+        <v>705</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>71</v>
+        <v>31</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>72</v>
       </c>
       <c r="M14" s="7">
-        <v>115</v>
+        <v>2</v>
       </c>
       <c r="N14" s="7">
-        <v>88830</v>
+        <v>1567</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>73</v>
       </c>
       <c r="P14" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1812,112 +1832,112 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>0</v>
+        <v>135</v>
       </c>
       <c r="D16" s="7">
-        <v>0</v>
+        <v>109616</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>11</v>
+        <v>76</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>12</v>
+        <v>77</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H16" s="7">
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="I16" s="7">
-        <v>0</v>
+        <v>71308</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>11</v>
+        <v>79</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>12</v>
+        <v>80</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="M16" s="7">
-        <v>0</v>
+        <v>231</v>
       </c>
       <c r="N16" s="7">
-        <v>0</v>
+        <v>180924</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>11</v>
+        <v>82</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>12</v>
+        <v>83</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="D17" s="7">
-        <v>1012</v>
+        <v>32919</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>11</v>
+        <v>86</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="H17" s="7">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="I17" s="7">
-        <v>593</v>
+        <v>28842</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>11</v>
+        <v>89</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="M17" s="7">
-        <v>2</v>
+        <v>70</v>
       </c>
       <c r="N17" s="7">
-        <v>1605</v>
+        <v>61761</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>11</v>
+        <v>92</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C18" s="7">
         <v>5</v>
@@ -1926,13 +1946,13 @@
         <v>4222</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="H18" s="7">
         <v>2</v>
@@ -1941,13 +1961,13 @@
         <v>1495</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="M18" s="7">
         <v>7</v>
@@ -1956,112 +1976,112 @@
         <v>5718</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="C19" s="7">
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="D19" s="7">
-        <v>32919</v>
+        <v>1012</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>94</v>
+        <v>31</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="H19" s="7">
-        <v>37</v>
+        <v>1</v>
       </c>
       <c r="I19" s="7">
-        <v>28842</v>
+        <v>593</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>97</v>
+        <v>31</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="M19" s="7">
-        <v>70</v>
+        <v>2</v>
       </c>
       <c r="N19" s="7">
-        <v>61761</v>
+        <v>1605</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>100</v>
+        <v>31</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="C20" s="7">
-        <v>135</v>
+        <v>0</v>
       </c>
       <c r="D20" s="7">
-        <v>109616</v>
+        <v>0</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>102</v>
+        <v>31</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>103</v>
+        <v>32</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="H20" s="7">
-        <v>96</v>
+        <v>0</v>
       </c>
       <c r="I20" s="7">
-        <v>71308</v>
+        <v>0</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>105</v>
+        <v>31</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>106</v>
+        <v>32</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="M20" s="7">
-        <v>231</v>
+        <v>0</v>
       </c>
       <c r="N20" s="7">
-        <v>180924</v>
+        <v>0</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>108</v>
+        <v>31</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>109</v>
+        <v>32</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>110</v>
@@ -2126,106 +2146,106 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="D22" s="7">
-        <v>0</v>
+        <v>76906</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>11</v>
+        <v>112</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>12</v>
+        <v>113</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="H22" s="7">
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="I22" s="7">
-        <v>0</v>
+        <v>63081</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>11</v>
+        <v>115</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>12</v>
+        <v>116</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="M22" s="7">
-        <v>0</v>
+        <v>165</v>
       </c>
       <c r="N22" s="7">
-        <v>0</v>
+        <v>139987</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>11</v>
+        <v>118</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>12</v>
+        <v>119</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="D23" s="7">
-        <v>0</v>
+        <v>24627</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>11</v>
+        <v>121</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>12</v>
+        <v>122</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="H23" s="7">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="I23" s="7">
-        <v>993</v>
+        <v>30225</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>11</v>
+        <v>125</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="M23" s="7">
-        <v>1</v>
+        <v>56</v>
       </c>
       <c r="N23" s="7">
-        <v>993</v>
+        <v>54852</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>11</v>
+        <v>128</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C24" s="7">
         <v>1</v>
@@ -2234,13 +2254,13 @@
         <v>454</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="H24" s="7">
         <v>6</v>
@@ -2249,13 +2269,13 @@
         <v>3469</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="M24" s="7">
         <v>7</v>
@@ -2264,115 +2284,115 @@
         <v>3923</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="C25" s="7">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="D25" s="7">
-        <v>24627</v>
+        <v>0</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>127</v>
+        <v>31</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>128</v>
+        <v>32</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="H25" s="7">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="I25" s="7">
-        <v>30225</v>
+        <v>993</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>131</v>
+        <v>31</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="M25" s="7">
-        <v>56</v>
+        <v>1</v>
       </c>
       <c r="N25" s="7">
-        <v>54852</v>
+        <v>993</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>134</v>
+        <v>31</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="C26" s="7">
-        <v>81</v>
+        <v>0</v>
       </c>
       <c r="D26" s="7">
-        <v>76906</v>
+        <v>0</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>136</v>
+        <v>31</v>
       </c>
       <c r="F26" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="G26" s="7" t="s">
-        <v>138</v>
-      </c>
       <c r="H26" s="7">
-        <v>84</v>
+        <v>0</v>
       </c>
       <c r="I26" s="7">
-        <v>63081</v>
+        <v>0</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>139</v>
+        <v>31</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>140</v>
+        <v>32</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="M26" s="7">
-        <v>165</v>
+        <v>0</v>
       </c>
       <c r="N26" s="7">
-        <v>139987</v>
+        <v>0</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>142</v>
+        <v>31</v>
       </c>
       <c r="P26" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2428,112 +2448,112 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>1</v>
+        <v>89</v>
       </c>
       <c r="D28" s="7">
-        <v>821</v>
+        <v>70724</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="F28" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>11</v>
       </c>
       <c r="G28" s="7" t="s">
         <v>147</v>
       </c>
       <c r="H28" s="7">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="I28" s="7">
-        <v>692</v>
+        <v>74134</v>
       </c>
       <c r="J28" s="7" t="s">
         <v>148</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>11</v>
+        <v>149</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="M28" s="7">
-        <v>2</v>
+        <v>188</v>
       </c>
       <c r="N28" s="7">
-        <v>1513</v>
+        <v>144859</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>11</v>
+        <v>152</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C29" s="7">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="D29" s="7">
-        <v>0</v>
+        <v>19695</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>11</v>
+        <v>154</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>12</v>
+        <v>155</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="H29" s="7">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="I29" s="7">
-        <v>0</v>
+        <v>23399</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>11</v>
+        <v>157</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>12</v>
+        <v>158</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="M29" s="7">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="N29" s="7">
-        <v>0</v>
+        <v>43094</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>11</v>
+        <v>160</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>12</v>
+        <v>161</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C30" s="7">
         <v>2</v>
@@ -2542,13 +2562,13 @@
         <v>1746</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="H30" s="7">
         <v>1</v>
@@ -2557,13 +2577,13 @@
         <v>964</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="M30" s="7">
         <v>3</v>
@@ -2572,115 +2592,115 @@
         <v>2710</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="C31" s="7">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="D31" s="7">
-        <v>19695</v>
+        <v>0</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>162</v>
+        <v>31</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>163</v>
+        <v>32</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="H31" s="7">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="I31" s="7">
-        <v>23399</v>
+        <v>0</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>165</v>
+        <v>31</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>166</v>
+        <v>32</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="M31" s="7">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="N31" s="7">
-        <v>43094</v>
+        <v>0</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>168</v>
+        <v>31</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>169</v>
+        <v>32</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="C32" s="7">
-        <v>89</v>
+        <v>1</v>
       </c>
       <c r="D32" s="7">
-        <v>70724</v>
+        <v>821</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>172</v>
+        <v>31</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="H32" s="7">
-        <v>99</v>
+        <v>1</v>
       </c>
       <c r="I32" s="7">
-        <v>74134</v>
+        <v>692</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>175</v>
+        <v>31</v>
       </c>
       <c r="L32" s="7" t="s">
         <v>176</v>
       </c>
       <c r="M32" s="7">
-        <v>188</v>
+        <v>2</v>
       </c>
       <c r="N32" s="7">
-        <v>144859</v>
+        <v>1513</v>
       </c>
       <c r="O32" s="7" t="s">
         <v>177</v>
       </c>
       <c r="P32" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q32" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2742,106 +2762,106 @@
         <v>10</v>
       </c>
       <c r="C34" s="7">
-        <v>2</v>
+        <v>365</v>
       </c>
       <c r="D34" s="7">
-        <v>1684</v>
+        <v>308360</v>
       </c>
       <c r="E34" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="F34" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>11</v>
       </c>
       <c r="G34" s="7" t="s">
         <v>181</v>
       </c>
       <c r="H34" s="7">
-        <v>2</v>
+        <v>351</v>
       </c>
       <c r="I34" s="7">
-        <v>1396</v>
+        <v>257201</v>
       </c>
       <c r="J34" s="7" t="s">
         <v>182</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>11</v>
+        <v>183</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="M34" s="7">
-        <v>4</v>
+        <v>716</v>
       </c>
       <c r="N34" s="7">
-        <v>3080</v>
+        <v>565562</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C35" s="7">
-        <v>3</v>
+        <v>106</v>
       </c>
       <c r="D35" s="7">
-        <v>2358</v>
+        <v>96870</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>113</v>
+        <v>190</v>
       </c>
       <c r="H35" s="7">
-        <v>2</v>
+        <v>110</v>
       </c>
       <c r="I35" s="7">
-        <v>1586</v>
+        <v>93446</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>11</v>
+        <v>192</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="M35" s="7">
-        <v>5</v>
+        <v>216</v>
       </c>
       <c r="N35" s="7">
-        <v>3944</v>
+        <v>190315</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="5" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C36" s="7">
         <v>12</v>
@@ -2850,13 +2870,13 @@
         <v>9304</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>194</v>
+        <v>59</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="H36" s="7">
         <v>10</v>
@@ -2865,13 +2885,13 @@
         <v>6932</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="M36" s="7">
         <v>22</v>
@@ -2880,115 +2900,115 @@
         <v>16236</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>183</v>
+        <v>203</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>200</v>
+        <v>63</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="C37" s="7">
-        <v>106</v>
+        <v>3</v>
       </c>
       <c r="D37" s="7">
-        <v>96870</v>
+        <v>2358</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="H37" s="7">
-        <v>110</v>
+        <v>2</v>
       </c>
       <c r="I37" s="7">
-        <v>93446</v>
+        <v>1586</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>205</v>
+        <v>31</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="M37" s="7">
-        <v>216</v>
+        <v>5</v>
       </c>
       <c r="N37" s="7">
-        <v>190315</v>
+        <v>3944</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="C38" s="7">
-        <v>365</v>
+        <v>2</v>
       </c>
       <c r="D38" s="7">
-        <v>308360</v>
+        <v>1684</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>211</v>
+        <v>31</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="H38" s="7">
-        <v>351</v>
+        <v>2</v>
       </c>
       <c r="I38" s="7">
-        <v>257201</v>
+        <v>1396</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>214</v>
+        <v>31</v>
       </c>
       <c r="L38" s="7" t="s">
         <v>215</v>
       </c>
       <c r="M38" s="7">
-        <v>716</v>
+        <v>4</v>
       </c>
       <c r="N38" s="7">
-        <v>565562</v>
+        <v>3080</v>
       </c>
       <c r="O38" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="P38" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="P38" s="7" t="s">
+      <c r="Q38" s="7" t="s">
         <v>217</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3040,6 +3060,11 @@
       </c>
       <c r="Q39" s="7" t="s">
         <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>218</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP07A24_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP07A24_2023-Habitat-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{623E852F-A25D-4344-9B4E-2F470945FC8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A6EAC3DF-A0E5-474A-AC13-DE4E78110780}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{C3065BC8-EC22-4E64-BBF2-BFD5CCF90155}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{8CBEEF2B-214B-4330-9454-BF4228F15851}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="221">
   <si>
     <t>Menores según frecuencia de haberse divertido con sus amigos en 2023 (Tasa respuesta: 50,16%)</t>
   </si>
@@ -65,7 +65,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Siempre</t>
@@ -74,28 +74,28 @@
     <t>68,41%</t>
   </si>
   <si>
-    <t>27,93%</t>
-  </si>
-  <si>
-    <t>92,72%</t>
+    <t>29,13%</t>
+  </si>
+  <si>
+    <t>92,74%</t>
   </si>
   <si>
     <t>66,33%</t>
   </si>
   <si>
-    <t>36,38%</t>
-  </si>
-  <si>
-    <t>88,05%</t>
+    <t>37,22%</t>
+  </si>
+  <si>
+    <t>87,04%</t>
   </si>
   <si>
     <t>67,16%</t>
   </si>
   <si>
-    <t>45,3%</t>
-  </si>
-  <si>
-    <t>86,02%</t>
+    <t>46,15%</t>
+  </si>
+  <si>
+    <t>83,63%</t>
   </si>
   <si>
     <t>Casi siempre</t>
@@ -104,28 +104,28 @@
     <t>31,59%</t>
   </si>
   <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>72,07%</t>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>70,87%</t>
   </si>
   <si>
     <t>33,67%</t>
   </si>
   <si>
-    <t>11,95%</t>
-  </si>
-  <si>
-    <t>63,62%</t>
+    <t>12,96%</t>
+  </si>
+  <si>
+    <t>62,78%</t>
   </si>
   <si>
     <t>32,84%</t>
   </si>
   <si>
-    <t>13,98%</t>
-  </si>
-  <si>
-    <t>54,7%</t>
+    <t>16,37%</t>
+  </si>
+  <si>
+    <t>53,85%</t>
   </si>
   <si>
     <t>Algunas veces</t>
@@ -155,85 +155,88 @@
     <t>100%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>67,31%</t>
   </si>
   <si>
-    <t>53,48%</t>
-  </si>
-  <si>
-    <t>80,29%</t>
+    <t>53,75%</t>
+  </si>
+  <si>
+    <t>79,3%</t>
   </si>
   <si>
     <t>81,79%</t>
   </si>
   <si>
-    <t>69,88%</t>
-  </si>
-  <si>
-    <t>90,46%</t>
+    <t>68,55%</t>
+  </si>
+  <si>
+    <t>90,1%</t>
   </si>
   <si>
     <t>73,49%</t>
   </si>
   <si>
-    <t>64,29%</t>
-  </si>
-  <si>
-    <t>81,03%</t>
+    <t>65,63%</t>
+  </si>
+  <si>
+    <t>81,38%</t>
   </si>
   <si>
     <t>25,34%</t>
   </si>
   <si>
-    <t>14,22%</t>
-  </si>
-  <si>
-    <t>38,69%</t>
+    <t>14,56%</t>
+  </si>
+  <si>
+    <t>38,04%</t>
   </si>
   <si>
     <t>14,9%</t>
   </si>
   <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>26,01%</t>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>27,47%</t>
   </si>
   <si>
     <t>20,89%</t>
   </si>
   <si>
-    <t>13,83%</t>
-  </si>
-  <si>
-    <t>29,61%</t>
+    <t>13,75%</t>
+  </si>
+  <si>
+    <t>29,08%</t>
   </si>
   <si>
     <t>4,16%</t>
   </si>
   <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>11,05%</t>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>10,45%</t>
   </si>
   <si>
     <t>1,94%</t>
   </si>
   <si>
-    <t>11,09%</t>
+    <t>10,6%</t>
   </si>
   <si>
     <t>3,21%</t>
   </si>
   <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
   </si>
   <si>
     <t>2,59%</t>
@@ -242,124 +245,124 @@
     <t>1,11%</t>
   </si>
   <si>
-    <t>3,4%</t>
+    <t>3,94%</t>
   </si>
   <si>
     <t>1,25%</t>
   </si>
   <si>
-    <t>6,37%</t>
+    <t>6,93%</t>
   </si>
   <si>
     <t>1,37%</t>
   </si>
   <si>
-    <t>7,14%</t>
+    <t>7,11%</t>
   </si>
   <si>
     <t>1,3%</t>
   </si>
   <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>10/50</t>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>74,18%</t>
   </si>
   <si>
-    <t>64,97%</t>
-  </si>
-  <si>
-    <t>80,68%</t>
+    <t>65,27%</t>
+  </si>
+  <si>
+    <t>81,22%</t>
   </si>
   <si>
     <t>69,75%</t>
   </si>
   <si>
-    <t>60,92%</t>
-  </si>
-  <si>
-    <t>77,53%</t>
+    <t>61,07%</t>
+  </si>
+  <si>
+    <t>77,06%</t>
   </si>
   <si>
     <t>72,37%</t>
   </si>
   <si>
-    <t>65,73%</t>
-  </si>
-  <si>
-    <t>77,64%</t>
+    <t>66,23%</t>
+  </si>
+  <si>
+    <t>77,37%</t>
   </si>
   <si>
     <t>22,28%</t>
   </si>
   <si>
-    <t>16,52%</t>
-  </si>
-  <si>
-    <t>31,01%</t>
+    <t>15,13%</t>
+  </si>
+  <si>
+    <t>30,61%</t>
   </si>
   <si>
     <t>28,21%</t>
   </si>
   <si>
-    <t>20,15%</t>
-  </si>
-  <si>
-    <t>36,65%</t>
+    <t>21,1%</t>
+  </si>
+  <si>
+    <t>36,86%</t>
   </si>
   <si>
     <t>24,7%</t>
   </si>
   <si>
-    <t>19,66%</t>
-  </si>
-  <si>
-    <t>31,41%</t>
+    <t>19,87%</t>
+  </si>
+  <si>
+    <t>30,82%</t>
   </si>
   <si>
     <t>2,86%</t>
   </si>
   <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
   </si>
   <si>
     <t>1,46%</t>
   </si>
   <si>
-    <t>4,96%</t>
+    <t>4,59%</t>
   </si>
   <si>
     <t>2,29%</t>
   </si>
   <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
   </si>
   <si>
     <t>0,68%</t>
   </si>
   <si>
-    <t>3,96%</t>
+    <t>4,09%</t>
   </si>
   <si>
     <t>0,58%</t>
   </si>
   <si>
-    <t>2,87%</t>
+    <t>2,63%</t>
   </si>
   <si>
     <t>0,64%</t>
   </si>
   <si>
-    <t>2,35%</t>
+    <t>2,42%</t>
   </si>
   <si>
     <t>1,1%</t>
@@ -371,82 +374,85 @@
     <t>0,62%</t>
   </si>
   <si>
-    <t>mas de 50</t>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>75,41%</t>
   </si>
   <si>
-    <t>65,71%</t>
-  </si>
-  <si>
-    <t>83,0%</t>
+    <t>65,56%</t>
+  </si>
+  <si>
+    <t>83,6%</t>
   </si>
   <si>
     <t>64,52%</t>
   </si>
   <si>
-    <t>47,72%</t>
-  </si>
-  <si>
-    <t>75,15%</t>
+    <t>46,71%</t>
+  </si>
+  <si>
+    <t>74,75%</t>
   </si>
   <si>
     <t>70,08%</t>
   </si>
   <si>
-    <t>59,45%</t>
-  </si>
-  <si>
-    <t>77,1%</t>
+    <t>59,26%</t>
+  </si>
+  <si>
+    <t>76,83%</t>
   </si>
   <si>
     <t>24,15%</t>
   </si>
   <si>
-    <t>16,92%</t>
-  </si>
-  <si>
-    <t>33,87%</t>
+    <t>16,09%</t>
+  </si>
+  <si>
+    <t>34,16%</t>
   </si>
   <si>
     <t>30,91%</t>
   </si>
   <si>
-    <t>20,52%</t>
-  </si>
-  <si>
-    <t>50,11%</t>
+    <t>20,55%</t>
+  </si>
+  <si>
+    <t>48,65%</t>
   </si>
   <si>
     <t>27,46%</t>
   </si>
   <si>
-    <t>20,78%</t>
-  </si>
-  <si>
-    <t>39,12%</t>
+    <t>20,68%</t>
+  </si>
+  <si>
+    <t>38,35%</t>
   </si>
   <si>
     <t>0,45%</t>
   </si>
   <si>
+    <t>2,26%</t>
+  </si>
+  <si>
     <t>3,55%</t>
   </si>
   <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
   </si>
   <si>
     <t>1,96%</t>
   </si>
   <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
   </si>
   <si>
     <t>1,73%</t>
@@ -455,13 +461,13 @@
     <t>1,02%</t>
   </si>
   <si>
-    <t>5,13%</t>
+    <t>6,51%</t>
   </si>
   <si>
     <t>0,5%</t>
   </si>
   <si>
-    <t>2,46%</t>
+    <t>2,62%</t>
   </si>
   <si>
     <t>1,6%</t>
@@ -476,67 +482,67 @@
     <t>76,06%</t>
   </si>
   <si>
-    <t>66,79%</t>
-  </si>
-  <si>
-    <t>83,15%</t>
+    <t>67,38%</t>
+  </si>
+  <si>
+    <t>83,27%</t>
   </si>
   <si>
     <t>74,74%</t>
   </si>
   <si>
-    <t>66,93%</t>
-  </si>
-  <si>
-    <t>82,03%</t>
+    <t>66,38%</t>
+  </si>
+  <si>
+    <t>82,5%</t>
   </si>
   <si>
     <t>75,38%</t>
   </si>
   <si>
-    <t>69,14%</t>
-  </si>
-  <si>
-    <t>80,99%</t>
+    <t>69,76%</t>
+  </si>
+  <si>
+    <t>80,75%</t>
   </si>
   <si>
     <t>21,18%</t>
   </si>
   <si>
-    <t>14,33%</t>
-  </si>
-  <si>
-    <t>29,68%</t>
+    <t>14,26%</t>
+  </si>
+  <si>
+    <t>29,37%</t>
   </si>
   <si>
     <t>23,59%</t>
   </si>
   <si>
-    <t>16,25%</t>
-  </si>
-  <si>
-    <t>31,46%</t>
+    <t>16,08%</t>
+  </si>
+  <si>
+    <t>32,13%</t>
   </si>
   <si>
     <t>22,42%</t>
   </si>
   <si>
-    <t>17,41%</t>
-  </si>
-  <si>
-    <t>28,5%</t>
+    <t>16,98%</t>
+  </si>
+  <si>
+    <t>27,83%</t>
   </si>
   <si>
     <t>1,88%</t>
   </si>
   <si>
-    <t>7,51%</t>
+    <t>7,31%</t>
   </si>
   <si>
     <t>0,97%</t>
   </si>
   <si>
-    <t>5,53%</t>
+    <t>5,32%</t>
   </si>
   <si>
     <t>1,41%</t>
@@ -545,7 +551,7 @@
     <t>0,3%</t>
   </si>
   <si>
-    <t>4,11%</t>
+    <t>4,13%</t>
   </si>
   <si>
     <t>1,62%</t>
@@ -560,94 +566,100 @@
     <t>0,88%</t>
   </si>
   <si>
-    <t>4,29%</t>
+    <t>4,77%</t>
   </si>
   <si>
     <t>0,7%</t>
   </si>
   <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>73,67%</t>
+  </si>
+  <si>
+    <t>69,29%</t>
+  </si>
+  <si>
+    <t>78,14%</t>
+  </si>
+  <si>
+    <t>71,33%</t>
+  </si>
+  <si>
+    <t>65,08%</t>
+  </si>
+  <si>
+    <t>75,7%</t>
+  </si>
+  <si>
+    <t>72,59%</t>
+  </si>
+  <si>
+    <t>68,72%</t>
+  </si>
+  <si>
+    <t>75,87%</t>
+  </si>
+  <si>
+    <t>23,14%</t>
+  </si>
+  <si>
+    <t>18,81%</t>
+  </si>
+  <si>
+    <t>27,65%</t>
+  </si>
+  <si>
+    <t>25,92%</t>
+  </si>
+  <si>
+    <t>21,52%</t>
+  </si>
+  <si>
+    <t>32,49%</t>
+  </si>
+  <si>
+    <t>24,43%</t>
+  </si>
+  <si>
+    <t>21,32%</t>
+  </si>
+  <si>
+    <t>28,23%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
     <t>4,02%</t>
   </si>
   <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>73,67%</t>
-  </si>
-  <si>
-    <t>69,19%</t>
-  </si>
-  <si>
-    <t>78,11%</t>
-  </si>
-  <si>
-    <t>71,33%</t>
-  </si>
-  <si>
-    <t>65,6%</t>
-  </si>
-  <si>
-    <t>75,89%</t>
-  </si>
-  <si>
-    <t>72,59%</t>
-  </si>
-  <si>
-    <t>68,82%</t>
-  </si>
-  <si>
-    <t>75,56%</t>
-  </si>
-  <si>
-    <t>23,14%</t>
-  </si>
-  <si>
-    <t>19,19%</t>
-  </si>
-  <si>
-    <t>27,6%</t>
-  </si>
-  <si>
-    <t>25,92%</t>
-  </si>
-  <si>
-    <t>21,21%</t>
-  </si>
-  <si>
-    <t>31,52%</t>
-  </si>
-  <si>
-    <t>24,43%</t>
-  </si>
-  <si>
-    <t>21,64%</t>
-  </si>
-  <si>
-    <t>28,53%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
     <t>1,92%</t>
   </si>
   <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
   </si>
   <si>
     <t>2,08%</t>
   </si>
   <si>
-    <t>1,29%</t>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
   </si>
   <si>
     <t>0,56%</t>
@@ -656,40 +668,34 @@
     <t>0,15%</t>
   </si>
   <si>
-    <t>1,59%</t>
+    <t>1,7%</t>
   </si>
   <si>
     <t>0,44%</t>
   </si>
   <si>
-    <t>1,63%</t>
+    <t>1,52%</t>
   </si>
   <si>
     <t>0,51%</t>
   </si>
   <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
+    <t>0,21%</t>
   </si>
   <si>
     <t>0,4%</t>
   </si>
   <si>
-    <t>1,42%</t>
+    <t>1,38%</t>
   </si>
   <si>
     <t>0,39%</t>
   </si>
   <si>
-    <t>1,33%</t>
+    <t>1,2%</t>
   </si>
   <si>
     <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -1104,7 +1110,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52182124-B7E0-4CF5-8F88-6D2BC62F4A3E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFCFBC09-C828-4A56-8212-DBBA745D133B}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1674,7 +1680,7 @@
         <v>64</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1695,7 +1701,7 @@
         <v>31</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -1710,7 +1716,7 @@
         <v>32</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M13" s="7">
         <v>2</v>
@@ -1719,13 +1725,13 @@
         <v>1346</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>31</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1740,13 +1746,13 @@
         <v>863</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H14" s="7">
         <v>1</v>
@@ -1755,13 +1761,13 @@
         <v>705</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="M14" s="7">
         <v>2</v>
@@ -1770,13 +1776,13 @@
         <v>1567</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>31</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1832,7 +1838,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1844,13 +1850,13 @@
         <v>109616</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H16" s="7">
         <v>96</v>
@@ -1859,13 +1865,13 @@
         <v>71308</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M16" s="7">
         <v>231</v>
@@ -1874,13 +1880,13 @@
         <v>180924</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1895,13 +1901,13 @@
         <v>32919</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H17" s="7">
         <v>37</v>
@@ -1910,13 +1916,13 @@
         <v>28842</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M17" s="7">
         <v>70</v>
@@ -1925,13 +1931,13 @@
         <v>61761</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1946,13 +1952,13 @@
         <v>4222</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H18" s="7">
         <v>2</v>
@@ -1961,13 +1967,13 @@
         <v>1495</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K18" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M18" s="7">
         <v>7</v>
@@ -1976,13 +1982,13 @@
         <v>5718</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1997,13 +2003,13 @@
         <v>1012</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H19" s="7">
         <v>1</v>
@@ -2012,13 +2018,13 @@
         <v>593</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="M19" s="7">
         <v>2</v>
@@ -2027,13 +2033,13 @@
         <v>1605</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>31</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2054,7 +2060,7 @@
         <v>32</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -2069,7 +2075,7 @@
         <v>32</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -2084,7 +2090,7 @@
         <v>32</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2140,7 +2146,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2152,13 +2158,13 @@
         <v>76906</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H22" s="7">
         <v>84</v>
@@ -2167,13 +2173,13 @@
         <v>63081</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M22" s="7">
         <v>165</v>
@@ -2182,13 +2188,13 @@
         <v>139987</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2203,13 +2209,13 @@
         <v>24627</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H23" s="7">
         <v>28</v>
@@ -2218,13 +2224,13 @@
         <v>30225</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="M23" s="7">
         <v>56</v>
@@ -2233,13 +2239,13 @@
         <v>54852</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2254,13 +2260,13 @@
         <v>454</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>107</v>
+        <v>132</v>
       </c>
       <c r="H24" s="7">
         <v>6</v>
@@ -2269,13 +2275,13 @@
         <v>3469</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="M24" s="7">
         <v>7</v>
@@ -2284,13 +2290,13 @@
         <v>3923</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2311,7 +2317,7 @@
         <v>32</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="H25" s="7">
         <v>1</v>
@@ -2320,13 +2326,13 @@
         <v>993</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="M25" s="7">
         <v>1</v>
@@ -2335,13 +2341,13 @@
         <v>993</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="P25" s="7" t="s">
         <v>31</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2362,7 +2368,7 @@
         <v>32</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -2377,7 +2383,7 @@
         <v>32</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="M26" s="7">
         <v>0</v>
@@ -2392,7 +2398,7 @@
         <v>32</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2448,7 +2454,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -2460,13 +2466,13 @@
         <v>70724</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="H28" s="7">
         <v>99</v>
@@ -2475,13 +2481,13 @@
         <v>74134</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="M28" s="7">
         <v>188</v>
@@ -2490,13 +2496,13 @@
         <v>144859</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2511,13 +2517,13 @@
         <v>19695</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="H29" s="7">
         <v>30</v>
@@ -2526,13 +2532,13 @@
         <v>23399</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="M29" s="7">
         <v>55</v>
@@ -2541,13 +2547,13 @@
         <v>43094</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2562,13 +2568,13 @@
         <v>1746</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="F30" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="H30" s="7">
         <v>1</v>
@@ -2577,13 +2583,13 @@
         <v>964</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="K30" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="M30" s="7">
         <v>3</v>
@@ -2592,13 +2598,13 @@
         <v>2710</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2619,7 +2625,7 @@
         <v>32</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="H31" s="7">
         <v>0</v>
@@ -2634,7 +2640,7 @@
         <v>32</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="M31" s="7">
         <v>0</v>
@@ -2649,7 +2655,7 @@
         <v>32</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2664,13 +2670,13 @@
         <v>821</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="H32" s="7">
         <v>1</v>
@@ -2679,13 +2685,13 @@
         <v>692</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="K32" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="M32" s="7">
         <v>2</v>
@@ -2694,13 +2700,13 @@
         <v>1513</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="P32" s="7" t="s">
         <v>31</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2768,13 +2774,13 @@
         <v>308360</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="H34" s="7">
         <v>351</v>
@@ -2783,13 +2789,13 @@
         <v>257201</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="M34" s="7">
         <v>716</v>
@@ -2798,13 +2804,13 @@
         <v>565562</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -2819,13 +2825,13 @@
         <v>96870</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="H35" s="7">
         <v>110</v>
@@ -2834,13 +2840,13 @@
         <v>93446</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="M35" s="7">
         <v>216</v>
@@ -2849,13 +2855,13 @@
         <v>190315</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -2870,13 +2876,13 @@
         <v>9304</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>59</v>
+        <v>200</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="H36" s="7">
         <v>10</v>
@@ -2885,13 +2891,13 @@
         <v>6932</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="M36" s="7">
         <v>22</v>
@@ -2900,13 +2906,13 @@
         <v>16236</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>63</v>
+        <v>207</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -2921,13 +2927,13 @@
         <v>2358</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="H37" s="7">
         <v>2</v>
@@ -2936,13 +2942,13 @@
         <v>1586</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="K37" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="M37" s="7">
         <v>5</v>
@@ -2951,13 +2957,13 @@
         <v>3944</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>211</v>
+        <v>64</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -2972,13 +2978,13 @@
         <v>1684</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="F38" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="H38" s="7">
         <v>2</v>
@@ -2987,13 +2993,13 @@
         <v>1396</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="K38" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="M38" s="7">
         <v>4</v>
@@ -3002,13 +3008,13 @@
         <v>3080</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>217</v>
+        <v>101</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3064,7 +3070,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP07A24_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP07A24_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A6EAC3DF-A0E5-474A-AC13-DE4E78110780}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{559203AE-2F74-4F84-89B7-9291911254D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{8CBEEF2B-214B-4330-9454-BF4228F15851}"/>
+    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8880" xr2:uid="{D9D27B11-32F6-4B77-93E4-051863EA4F38}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,15 +36,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="221">
-  <si>
-    <t>Menores según frecuencia de haberse divertido con sus amigos en 2023 (Tasa respuesta: 50,16%)</t>
-  </si>
-  <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="225">
+  <si>
+    <t>Menores según frecuencia de haberse divertido con sus amigos en 2023 (Tasa respuesta: 50,1%)</t>
+  </si>
+  <si>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -65,637 +65,649 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Siempre</t>
   </si>
   <si>
-    <t>68,41%</t>
-  </si>
-  <si>
-    <t>29,13%</t>
-  </si>
-  <si>
-    <t>92,74%</t>
-  </si>
-  <si>
-    <t>66,33%</t>
-  </si>
-  <si>
-    <t>37,22%</t>
-  </si>
-  <si>
-    <t>87,04%</t>
-  </si>
-  <si>
-    <t>67,16%</t>
-  </si>
-  <si>
-    <t>46,15%</t>
-  </si>
-  <si>
-    <t>83,63%</t>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>16,64%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
   </si>
   <si>
     <t>Casi siempre</t>
   </si>
   <si>
-    <t>31,59%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>70,87%</t>
-  </si>
-  <si>
-    <t>33,67%</t>
-  </si>
-  <si>
-    <t>12,96%</t>
-  </si>
-  <si>
-    <t>62,78%</t>
-  </si>
-  <si>
-    <t>32,84%</t>
-  </si>
-  <si>
-    <t>16,37%</t>
-  </si>
-  <si>
-    <t>53,85%</t>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
   </si>
   <si>
     <t>Algunas veces</t>
   </si>
   <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>12,8%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
   </si>
   <si>
     <t>Casi nunca</t>
   </si>
   <si>
+    <t>11,18%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>19,37%</t>
+  </si>
+  <si>
+    <t>26,24%</t>
+  </si>
+  <si>
+    <t>15,37%</t>
+  </si>
+  <si>
+    <t>43,9%</t>
+  </si>
+  <si>
+    <t>20,13%</t>
+  </si>
+  <si>
+    <t>13,62%</t>
+  </si>
+  <si>
+    <t>31,61%</t>
+  </si>
+  <si>
     <t>Nunca</t>
   </si>
   <si>
+    <t>78,38%</t>
+  </si>
+  <si>
+    <t>67,3%</t>
+  </si>
+  <si>
+    <t>87,3%</t>
+  </si>
+  <si>
+    <t>67,98%</t>
+  </si>
+  <si>
+    <t>51,07%</t>
+  </si>
+  <si>
+    <t>81,33%</t>
+  </si>
+  <si>
+    <t>72,2%</t>
+  </si>
+  <si>
+    <t>61,95%</t>
+  </si>
+  <si>
+    <t>79,78%</t>
+  </si>
+  <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>67,31%</t>
-  </si>
-  <si>
-    <t>53,75%</t>
-  </si>
-  <si>
-    <t>79,3%</t>
-  </si>
-  <si>
-    <t>81,79%</t>
-  </si>
-  <si>
-    <t>68,55%</t>
-  </si>
-  <si>
-    <t>90,1%</t>
-  </si>
-  <si>
-    <t>73,49%</t>
-  </si>
-  <si>
-    <t>65,63%</t>
-  </si>
-  <si>
-    <t>81,38%</t>
-  </si>
-  <si>
-    <t>25,34%</t>
-  </si>
-  <si>
-    <t>14,56%</t>
-  </si>
-  <si>
-    <t>38,04%</t>
-  </si>
-  <si>
-    <t>14,9%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>27,47%</t>
-  </si>
-  <si>
-    <t>20,89%</t>
-  </si>
-  <si>
-    <t>13,75%</t>
-  </si>
-  <si>
-    <t>29,08%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>10,45%</t>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>12,32%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>20,35%</t>
+  </si>
+  <si>
+    <t>14,0%</t>
+  </si>
+  <si>
+    <t>27,43%</t>
+  </si>
+  <si>
+    <t>28,23%</t>
+  </si>
+  <si>
+    <t>21,29%</t>
+  </si>
+  <si>
+    <t>37,26%</t>
+  </si>
+  <si>
+    <t>25,12%</t>
+  </si>
+  <si>
+    <t>20,28%</t>
+  </si>
+  <si>
+    <t>31,91%</t>
+  </si>
+  <si>
+    <t>72,11%</t>
+  </si>
+  <si>
+    <t>63,48%</t>
+  </si>
+  <si>
+    <t>79,44%</t>
+  </si>
+  <si>
+    <t>62,1%</t>
+  </si>
+  <si>
+    <t>52,34%</t>
+  </si>
+  <si>
+    <t>69,87%</t>
+  </si>
+  <si>
+    <t>66,05%</t>
+  </si>
+  <si>
+    <t>59,34%</t>
+  </si>
+  <si>
+    <t>71,1%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>16,81%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
   </si>
   <si>
     <t>1,94%</t>
   </si>
   <si>
-    <t>10,6%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>74,18%</t>
-  </si>
-  <si>
-    <t>65,27%</t>
-  </si>
-  <si>
-    <t>81,22%</t>
-  </si>
-  <si>
-    <t>69,75%</t>
-  </si>
-  <si>
-    <t>61,07%</t>
-  </si>
-  <si>
-    <t>77,06%</t>
-  </si>
-  <si>
-    <t>72,37%</t>
-  </si>
-  <si>
-    <t>66,23%</t>
-  </si>
-  <si>
-    <t>77,37%</t>
-  </si>
-  <si>
-    <t>22,28%</t>
-  </si>
-  <si>
-    <t>15,13%</t>
-  </si>
-  <si>
-    <t>30,61%</t>
-  </si>
-  <si>
-    <t>28,21%</t>
-  </si>
-  <si>
-    <t>21,1%</t>
-  </si>
-  <si>
-    <t>36,86%</t>
-  </si>
-  <si>
-    <t>24,7%</t>
-  </si>
-  <si>
-    <t>19,87%</t>
-  </si>
-  <si>
-    <t>30,82%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>12,46%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>19,42%</t>
+  </si>
+  <si>
+    <t>12,81%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>20,66%</t>
+  </si>
+  <si>
+    <t>12,63%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>17,93%</t>
+  </si>
+  <si>
+    <t>83,3%</t>
+  </si>
+  <si>
+    <t>75,21%</t>
+  </si>
+  <si>
+    <t>93,25%</t>
+  </si>
+  <si>
+    <t>80,13%</t>
+  </si>
+  <si>
+    <t>68,81%</t>
+  </si>
+  <si>
+    <t>87,61%</t>
+  </si>
+  <si>
+    <t>81,78%</t>
+  </si>
+  <si>
+    <t>75,16%</t>
+  </si>
+  <si>
+    <t>87,99%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
   </si>
   <si>
     <t>5,0%</t>
   </si>
   <si>
-    <t>0,68%</t>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>12,14%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>19,8%</t>
+  </si>
+  <si>
+    <t>13,05%</t>
+  </si>
+  <si>
+    <t>27,12%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>15,95%</t>
+  </si>
+  <si>
+    <t>14,08%</t>
+  </si>
+  <si>
+    <t>9,82%</t>
+  </si>
+  <si>
+    <t>19,41%</t>
+  </si>
+  <si>
+    <t>74,99%</t>
+  </si>
+  <si>
+    <t>67,25%</t>
+  </si>
+  <si>
+    <t>82,46%</t>
+  </si>
+  <si>
+    <t>78,71%</t>
+  </si>
+  <si>
+    <t>70,3%</t>
+  </si>
+  <si>
+    <t>85,78%</t>
+  </si>
+  <si>
+    <t>76,87%</t>
+  </si>
+  <si>
+    <t>71,01%</t>
+  </si>
+  <si>
+    <t>81,62%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
   </si>
   <si>
     <t>4,09%</t>
   </si>
   <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>75,41%</t>
-  </si>
-  <si>
-    <t>65,56%</t>
-  </si>
-  <si>
-    <t>83,6%</t>
-  </si>
-  <si>
-    <t>64,52%</t>
-  </si>
-  <si>
-    <t>46,71%</t>
-  </si>
-  <si>
-    <t>74,75%</t>
-  </si>
-  <si>
-    <t>70,08%</t>
-  </si>
-  <si>
-    <t>59,26%</t>
-  </si>
-  <si>
-    <t>76,83%</t>
-  </si>
-  <si>
-    <t>24,15%</t>
-  </si>
-  <si>
-    <t>16,09%</t>
-  </si>
-  <si>
-    <t>34,16%</t>
-  </si>
-  <si>
-    <t>30,91%</t>
-  </si>
-  <si>
-    <t>20,55%</t>
-  </si>
-  <si>
-    <t>48,65%</t>
-  </si>
-  <si>
-    <t>27,46%</t>
-  </si>
-  <si>
-    <t>20,68%</t>
-  </si>
-  <si>
-    <t>38,35%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>76,06%</t>
-  </si>
-  <si>
-    <t>67,38%</t>
+    <t>16,23%</t>
+  </si>
+  <si>
+    <t>12,05%</t>
+  </si>
+  <si>
+    <t>19,91%</t>
+  </si>
+  <si>
+    <t>19,69%</t>
+  </si>
+  <si>
+    <t>15,89%</t>
+  </si>
+  <si>
+    <t>24,45%</t>
+  </si>
+  <si>
+    <t>18,11%</t>
+  </si>
+  <si>
+    <t>15,12%</t>
+  </si>
+  <si>
+    <t>21,12%</t>
+  </si>
+  <si>
+    <t>77,43%</t>
+  </si>
+  <si>
+    <t>73,22%</t>
   </si>
   <si>
     <t>83,27%</t>
   </si>
   <si>
-    <t>74,74%</t>
-  </si>
-  <si>
-    <t>66,38%</t>
-  </si>
-  <si>
-    <t>82,5%</t>
-  </si>
-  <si>
-    <t>75,38%</t>
-  </si>
-  <si>
-    <t>69,76%</t>
-  </si>
-  <si>
-    <t>80,75%</t>
-  </si>
-  <si>
-    <t>21,18%</t>
-  </si>
-  <si>
-    <t>14,26%</t>
-  </si>
-  <si>
-    <t>29,37%</t>
-  </si>
-  <si>
-    <t>23,59%</t>
-  </si>
-  <si>
-    <t>16,08%</t>
-  </si>
-  <si>
-    <t>32,13%</t>
-  </si>
-  <si>
-    <t>22,42%</t>
-  </si>
-  <si>
-    <t>16,98%</t>
-  </si>
-  <si>
-    <t>27,83%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>73,67%</t>
-  </si>
-  <si>
-    <t>69,29%</t>
-  </si>
-  <si>
-    <t>78,14%</t>
-  </si>
-  <si>
-    <t>71,33%</t>
-  </si>
-  <si>
-    <t>65,08%</t>
-  </si>
-  <si>
-    <t>75,7%</t>
-  </si>
-  <si>
-    <t>72,59%</t>
-  </si>
-  <si>
-    <t>68,72%</t>
-  </si>
-  <si>
-    <t>75,87%</t>
-  </si>
-  <si>
-    <t>23,14%</t>
-  </si>
-  <si>
-    <t>18,81%</t>
-  </si>
-  <si>
-    <t>27,65%</t>
-  </si>
-  <si>
-    <t>25,92%</t>
-  </si>
-  <si>
-    <t>21,52%</t>
-  </si>
-  <si>
-    <t>32,49%</t>
-  </si>
-  <si>
-    <t>24,43%</t>
-  </si>
-  <si>
-    <t>21,32%</t>
-  </si>
-  <si>
-    <t>28,23%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
+    <t>71,35%</t>
+  </si>
+  <si>
+    <t>66,21%</t>
+  </si>
+  <si>
+    <t>75,68%</t>
+  </si>
+  <si>
+    <t>74,12%</t>
+  </si>
+  <si>
+    <t>70,82%</t>
+  </si>
+  <si>
+    <t>77,66%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -1110,8 +1122,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFCFBC09-C828-4A56-8212-DBBA745D133B}">
-  <dimension ref="A1:Q40"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69BE04AB-58F1-40E9-88DA-11451CB0FAEB}">
+  <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1228,10 +1240,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D4" s="7">
-        <v>4484</v>
+        <v>3237</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1243,10 +1255,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="I4" s="7">
-        <v>6479</v>
+        <v>1510</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1258,10 +1270,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="N4" s="7">
-        <v>10962</v>
+        <v>4747</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1282,7 +1294,7 @@
         <v>3</v>
       </c>
       <c r="D5" s="7">
-        <v>2071</v>
+        <v>2199</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1294,187 +1306,187 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I5" s="7">
-        <v>3289</v>
+        <v>0</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="L5" s="7" t="s">
+      <c r="M5" s="7">
+        <v>3</v>
+      </c>
+      <c r="N5" s="7">
+        <v>2199</v>
+      </c>
+      <c r="O5" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="M5" s="7">
-        <v>8</v>
-      </c>
-      <c r="N5" s="7">
-        <v>5360</v>
-      </c>
-      <c r="O5" s="7" t="s">
+      <c r="P5" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>28</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="7">
+        <v>1</v>
+      </c>
+      <c r="D6" s="7">
+        <v>629</v>
+      </c>
+      <c r="E6" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7">
-        <v>0</v>
-      </c>
-      <c r="E6" s="7" t="s">
+      <c r="F6" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="H6" s="7">
+        <v>4</v>
+      </c>
+      <c r="I6" s="7">
+        <v>3410</v>
+      </c>
+      <c r="J6" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="K6" s="7" t="s">
         <v>33</v>
-      </c>
-      <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7">
-        <v>0</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>32</v>
       </c>
       <c r="L6" s="7" t="s">
         <v>34</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N6" s="7">
-        <v>0</v>
+        <v>4039</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C7" s="7">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D7" s="7">
-        <v>0</v>
+        <v>6499</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="H7" s="7">
+        <v>22</v>
+      </c>
+      <c r="I7" s="7">
+        <v>22320</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="M7" s="7">
         <v>31</v>
       </c>
-      <c r="F7" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="H7" s="7">
-        <v>0</v>
-      </c>
-      <c r="I7" s="7">
-        <v>0</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="M7" s="7">
-        <v>0</v>
-      </c>
       <c r="N7" s="7">
-        <v>0</v>
+        <v>28820</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="C8" s="7">
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="D8" s="7">
-        <v>0</v>
+        <v>45549</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="H8" s="7">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="I8" s="7">
-        <v>0</v>
+        <v>57833</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="M8" s="7">
-        <v>0</v>
+        <v>132</v>
       </c>
       <c r="N8" s="7">
-        <v>0</v>
+        <v>103383</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>35</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1483,102 +1495,102 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>9</v>
+        <v>89</v>
       </c>
       <c r="D9" s="7">
-        <v>6555</v>
+        <v>58113</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="H9" s="7">
-        <v>16</v>
+        <v>87</v>
       </c>
       <c r="I9" s="7">
-        <v>9768</v>
+        <v>85074</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="M9" s="7">
-        <v>25</v>
+        <v>176</v>
       </c>
       <c r="N9" s="7">
-        <v>16322</v>
+        <v>143187</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>54</v>
+        <v>4</v>
       </c>
       <c r="D10" s="7">
-        <v>46630</v>
+        <v>2894</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="H10" s="7">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="I10" s="7">
-        <v>42200</v>
+        <v>10368</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="M10" s="7">
-        <v>115</v>
+        <v>16</v>
       </c>
       <c r="N10" s="7">
-        <v>88830</v>
+        <v>13263</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1587,202 +1599,202 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="D11" s="7">
-        <v>17558</v>
+        <v>1898</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="H11" s="7">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="I11" s="7">
-        <v>7690</v>
+        <v>2277</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
       <c r="M11" s="7">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="N11" s="7">
-        <v>25249</v>
+        <v>4175</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>57</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C12" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D12" s="7">
-        <v>2881</v>
+        <v>2538</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>59</v>
+        <v>79</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="H12" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I12" s="7">
-        <v>1003</v>
+        <v>1782</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>31</v>
+        <v>82</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>62</v>
+        <v>83</v>
       </c>
       <c r="M12" s="7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N12" s="7">
-        <v>3884</v>
+        <v>4320</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>64</v>
+        <v>85</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>65</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C13" s="7">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="D13" s="7">
-        <v>1346</v>
+        <v>19794</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>61</v>
+        <v>87</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>31</v>
+        <v>88</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>66</v>
+        <v>89</v>
       </c>
       <c r="H13" s="7">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="I13" s="7">
-        <v>0</v>
+        <v>42125</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>31</v>
+        <v>90</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>32</v>
+        <v>91</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>67</v>
+        <v>92</v>
       </c>
       <c r="M13" s="7">
-        <v>2</v>
+        <v>76</v>
       </c>
       <c r="N13" s="7">
-        <v>1346</v>
+        <v>61919</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>68</v>
+        <v>93</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>31</v>
+        <v>94</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>69</v>
+        <v>95</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="C14" s="7">
-        <v>1</v>
+        <v>96</v>
       </c>
       <c r="D14" s="7">
-        <v>863</v>
+        <v>70142</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>70</v>
+        <v>96</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>31</v>
+        <v>97</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>71</v>
+        <v>98</v>
       </c>
       <c r="H14" s="7">
-        <v>1</v>
+        <v>111</v>
       </c>
       <c r="I14" s="7">
-        <v>705</v>
+        <v>92663</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>72</v>
+        <v>99</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>31</v>
+        <v>100</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>73</v>
+        <v>101</v>
       </c>
       <c r="M14" s="7">
-        <v>2</v>
+        <v>207</v>
       </c>
       <c r="N14" s="7">
-        <v>1567</v>
+        <v>162806</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>74</v>
+        <v>102</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>31</v>
+        <v>103</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>75</v>
+        <v>104</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1791,102 +1803,102 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>78</v>
+        <v>136</v>
       </c>
       <c r="D15" s="7">
-        <v>69278</v>
+        <v>97266</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="H15" s="7">
-        <v>73</v>
+        <v>175</v>
       </c>
       <c r="I15" s="7">
-        <v>51598</v>
+        <v>149215</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="M15" s="7">
-        <v>151</v>
+        <v>311</v>
       </c>
       <c r="N15" s="7">
-        <v>120876</v>
+        <v>246482</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>76</v>
+        <v>105</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>135</v>
+        <v>1</v>
       </c>
       <c r="D16" s="7">
-        <v>109616</v>
+        <v>682</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>77</v>
+        <v>106</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>78</v>
+        <v>15</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>79</v>
+        <v>107</v>
       </c>
       <c r="H16" s="7">
-        <v>96</v>
+        <v>1</v>
       </c>
       <c r="I16" s="7">
-        <v>71308</v>
+        <v>3597</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>80</v>
+        <v>108</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>81</v>
+        <v>15</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>82</v>
+        <v>109</v>
       </c>
       <c r="M16" s="7">
-        <v>231</v>
+        <v>2</v>
       </c>
       <c r="N16" s="7">
-        <v>180924</v>
+        <v>4279</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>83</v>
+        <v>110</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>84</v>
+        <v>15</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>85</v>
+        <v>111</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1895,202 +1907,202 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="D17" s="7">
-        <v>32919</v>
+        <v>1654</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>86</v>
+        <v>112</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>87</v>
+        <v>15</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>88</v>
+        <v>113</v>
       </c>
       <c r="H17" s="7">
-        <v>37</v>
+        <v>2</v>
       </c>
       <c r="I17" s="7">
-        <v>28842</v>
+        <v>2344</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>89</v>
+        <v>114</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>90</v>
+        <v>15</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>91</v>
+        <v>115</v>
       </c>
       <c r="M17" s="7">
-        <v>70</v>
+        <v>4</v>
       </c>
       <c r="N17" s="7">
-        <v>61761</v>
+        <v>3998</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>92</v>
+        <v>116</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>93</v>
+        <v>117</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>94</v>
+        <v>118</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C18" s="7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D18" s="7">
-        <v>4222</v>
+        <v>2662</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>95</v>
+        <v>119</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>96</v>
+        <v>120</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>97</v>
+        <v>121</v>
       </c>
       <c r="H18" s="7">
         <v>2</v>
       </c>
       <c r="I18" s="7">
-        <v>1495</v>
+        <v>1753</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>98</v>
+        <v>122</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>99</v>
+        <v>123</v>
       </c>
       <c r="M18" s="7">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N18" s="7">
-        <v>5718</v>
+        <v>4415</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>100</v>
+        <v>124</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>101</v>
+        <v>125</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>102</v>
+        <v>126</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C19" s="7">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="D19" s="7">
-        <v>1012</v>
+        <v>14721</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>103</v>
+        <v>127</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>31</v>
+        <v>128</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>104</v>
+        <v>129</v>
       </c>
       <c r="H19" s="7">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="I19" s="7">
-        <v>593</v>
+        <v>13960</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>105</v>
+        <v>130</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>31</v>
+        <v>131</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>106</v>
+        <v>132</v>
       </c>
       <c r="M19" s="7">
-        <v>2</v>
+        <v>38</v>
       </c>
       <c r="N19" s="7">
-        <v>1605</v>
+        <v>28681</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>107</v>
+        <v>133</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>31</v>
+        <v>134</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>108</v>
+        <v>135</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="C20" s="7">
-        <v>0</v>
+        <v>91</v>
       </c>
       <c r="D20" s="7">
-        <v>0</v>
+        <v>98388</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>31</v>
+        <v>136</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>32</v>
+        <v>137</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>109</v>
+        <v>138</v>
       </c>
       <c r="H20" s="7">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="I20" s="7">
-        <v>0</v>
+        <v>87311</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>31</v>
+        <v>139</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>32</v>
+        <v>140</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>110</v>
+        <v>141</v>
       </c>
       <c r="M20" s="7">
-        <v>0</v>
+        <v>179</v>
       </c>
       <c r="N20" s="7">
-        <v>0</v>
+        <v>185700</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>31</v>
+        <v>142</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>32</v>
+        <v>143</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>111</v>
+        <v>144</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2099,102 +2111,102 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>174</v>
+        <v>119</v>
       </c>
       <c r="D21" s="7">
-        <v>147769</v>
+        <v>118108</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="H21" s="7">
-        <v>136</v>
+        <v>110</v>
       </c>
       <c r="I21" s="7">
-        <v>102239</v>
+        <v>108964</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="M21" s="7">
-        <v>310</v>
+        <v>229</v>
       </c>
       <c r="N21" s="7">
-        <v>250008</v>
+        <v>227072</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>112</v>
+        <v>145</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>81</v>
+        <v>2</v>
       </c>
       <c r="D22" s="7">
-        <v>76906</v>
+        <v>1707</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>113</v>
+        <v>146</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>114</v>
+        <v>15</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>115</v>
+        <v>16</v>
       </c>
       <c r="H22" s="7">
-        <v>84</v>
+        <v>3</v>
       </c>
       <c r="I22" s="7">
-        <v>63081</v>
+        <v>2685</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>116</v>
+        <v>147</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>117</v>
+        <v>148</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>118</v>
+        <v>149</v>
       </c>
       <c r="M22" s="7">
-        <v>165</v>
+        <v>5</v>
       </c>
       <c r="N22" s="7">
-        <v>139987</v>
+        <v>4392</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>119</v>
+        <v>150</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>120</v>
+        <v>151</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>121</v>
+        <v>152</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2203,202 +2215,202 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="D23" s="7">
-        <v>24627</v>
+        <v>981</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>122</v>
+        <v>153</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>123</v>
+        <v>15</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>124</v>
+        <v>154</v>
       </c>
       <c r="H23" s="7">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="I23" s="7">
-        <v>30225</v>
+        <v>2650</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>125</v>
+        <v>155</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>126</v>
+        <v>156</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>127</v>
+        <v>157</v>
       </c>
       <c r="M23" s="7">
-        <v>56</v>
+        <v>7</v>
       </c>
       <c r="N23" s="7">
-        <v>54852</v>
+        <v>3631</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>128</v>
+        <v>158</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>129</v>
+        <v>76</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>130</v>
+        <v>159</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C24" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D24" s="7">
-        <v>454</v>
+        <v>2236</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>131</v>
+        <v>160</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>31</v>
+        <v>161</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>132</v>
+        <v>162</v>
       </c>
       <c r="H24" s="7">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="I24" s="7">
-        <v>3469</v>
+        <v>7030</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>133</v>
+        <v>163</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>134</v>
+        <v>164</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>135</v>
+        <v>165</v>
       </c>
       <c r="M24" s="7">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="N24" s="7">
-        <v>3923</v>
+        <v>9267</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>136</v>
+        <v>166</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>137</v>
+        <v>167</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>138</v>
+        <v>168</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C25" s="7">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="D25" s="7">
-        <v>0</v>
+        <v>18709</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>31</v>
+        <v>169</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>32</v>
+        <v>170</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>139</v>
+        <v>171</v>
       </c>
       <c r="H25" s="7">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="I25" s="7">
-        <v>993</v>
+        <v>8178</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>140</v>
+        <v>111</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>31</v>
+        <v>172</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>141</v>
+        <v>173</v>
       </c>
       <c r="M25" s="7">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="N25" s="7">
-        <v>993</v>
+        <v>26887</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>142</v>
+        <v>174</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>31</v>
+        <v>175</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>143</v>
+        <v>176</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="C26" s="7">
-        <v>0</v>
+        <v>97</v>
       </c>
       <c r="D26" s="7">
-        <v>0</v>
+        <v>70853</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>31</v>
+        <v>177</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>32</v>
+        <v>178</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>139</v>
+        <v>179</v>
       </c>
       <c r="H26" s="7">
-        <v>0</v>
+        <v>91</v>
       </c>
       <c r="I26" s="7">
-        <v>0</v>
+        <v>75928</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>31</v>
+        <v>180</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>32</v>
+        <v>181</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>144</v>
+        <v>182</v>
       </c>
       <c r="M26" s="7">
-        <v>0</v>
+        <v>188</v>
       </c>
       <c r="N26" s="7">
-        <v>0</v>
+        <v>146780</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>31</v>
+        <v>183</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>32</v>
+        <v>184</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>145</v>
+        <v>185</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2407,102 +2419,102 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>110</v>
+        <v>129</v>
       </c>
       <c r="D27" s="7">
-        <v>101987</v>
+        <v>94486</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="H27" s="7">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="I27" s="7">
-        <v>97768</v>
+        <v>96471</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="M27" s="7">
-        <v>229</v>
+        <v>246</v>
       </c>
       <c r="N27" s="7">
-        <v>199755</v>
+        <v>190957</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>146</v>
+        <v>3</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>89</v>
+        <v>10</v>
       </c>
       <c r="D28" s="7">
-        <v>70724</v>
+        <v>8520</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>147</v>
+        <v>186</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>148</v>
+        <v>18</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>149</v>
+        <v>187</v>
       </c>
       <c r="H28" s="7">
-        <v>99</v>
+        <v>18</v>
       </c>
       <c r="I28" s="7">
-        <v>74134</v>
+        <v>18161</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>150</v>
+        <v>188</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>151</v>
+        <v>189</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>152</v>
+        <v>190</v>
       </c>
       <c r="M28" s="7">
-        <v>188</v>
+        <v>28</v>
       </c>
       <c r="N28" s="7">
-        <v>144859</v>
+        <v>26681</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>153</v>
+        <v>108</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>154</v>
+        <v>191</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>155</v>
+        <v>192</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2511,202 +2523,202 @@
         <v>20</v>
       </c>
       <c r="C29" s="7">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="D29" s="7">
-        <v>19695</v>
+        <v>6733</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="F29" s="7" t="s">
-        <v>157</v>
-      </c>
       <c r="G29" s="7" t="s">
-        <v>158</v>
+        <v>194</v>
       </c>
       <c r="H29" s="7">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="I29" s="7">
-        <v>23399</v>
+        <v>7270</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>159</v>
+        <v>195</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>160</v>
+        <v>196</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>161</v>
+        <v>197</v>
       </c>
       <c r="M29" s="7">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="N29" s="7">
-        <v>43094</v>
+        <v>14003</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>162</v>
+        <v>198</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>163</v>
+        <v>18</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>164</v>
+        <v>147</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C30" s="7">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D30" s="7">
-        <v>1746</v>
+        <v>8065</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>165</v>
+        <v>199</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>31</v>
+        <v>200</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>166</v>
+        <v>201</v>
       </c>
       <c r="H30" s="7">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="I30" s="7">
-        <v>964</v>
+        <v>13976</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>167</v>
+        <v>202</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>31</v>
+        <v>69</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>168</v>
+        <v>203</v>
       </c>
       <c r="M30" s="7">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="N30" s="7">
-        <v>2710</v>
+        <v>22040</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>169</v>
+        <v>204</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>170</v>
+        <v>146</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>171</v>
+        <v>205</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C31" s="7">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="D31" s="7">
-        <v>0</v>
+        <v>59723</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>31</v>
+        <v>206</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>32</v>
+        <v>207</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>172</v>
+        <v>208</v>
       </c>
       <c r="H31" s="7">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="I31" s="7">
-        <v>0</v>
+        <v>86583</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>31</v>
+        <v>209</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>32</v>
+        <v>210</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>173</v>
+        <v>211</v>
       </c>
       <c r="M31" s="7">
-        <v>0</v>
+        <v>179</v>
       </c>
       <c r="N31" s="7">
-        <v>0</v>
+        <v>146306</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>31</v>
+        <v>212</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>32</v>
+        <v>213</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>174</v>
+        <v>214</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="C32" s="7">
-        <v>1</v>
+        <v>357</v>
       </c>
       <c r="D32" s="7">
-        <v>821</v>
+        <v>284932</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>175</v>
+        <v>215</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>31</v>
+        <v>216</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>176</v>
+        <v>217</v>
       </c>
       <c r="H32" s="7">
-        <v>1</v>
+        <v>349</v>
       </c>
       <c r="I32" s="7">
-        <v>692</v>
+        <v>313735</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>177</v>
+        <v>218</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>31</v>
+        <v>219</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>178</v>
+        <v>220</v>
       </c>
       <c r="M32" s="7">
-        <v>2</v>
+        <v>706</v>
       </c>
       <c r="N32" s="7">
-        <v>1513</v>
+        <v>598667</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>179</v>
+        <v>221</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>31</v>
+        <v>222</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>180</v>
+        <v>223</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2715,370 +2727,61 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
-        <v>117</v>
+        <v>473</v>
       </c>
       <c r="D33" s="7">
-        <v>92986</v>
+        <v>367973</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="H33" s="7">
-        <v>131</v>
+        <v>489</v>
       </c>
       <c r="I33" s="7">
-        <v>99190</v>
+        <v>439724</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="M33" s="7">
-        <v>248</v>
+        <v>962</v>
       </c>
       <c r="N33" s="7">
-        <v>192176</v>
+        <v>807697</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A34" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C34" s="7">
-        <v>365</v>
-      </c>
-      <c r="D34" s="7">
-        <v>308360</v>
-      </c>
-      <c r="E34" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="H34" s="7">
-        <v>351</v>
-      </c>
-      <c r="I34" s="7">
-        <v>257201</v>
-      </c>
-      <c r="J34" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="K34" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="M34" s="7">
-        <v>716</v>
-      </c>
-      <c r="N34" s="7">
-        <v>565562</v>
-      </c>
-      <c r="O34" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="P34" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A35" s="1"/>
-      <c r="B35" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C35" s="7">
-        <v>106</v>
-      </c>
-      <c r="D35" s="7">
-        <v>96870</v>
-      </c>
-      <c r="E35" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="H35" s="7">
-        <v>110</v>
-      </c>
-      <c r="I35" s="7">
-        <v>93446</v>
-      </c>
-      <c r="J35" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="K35" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="M35" s="7">
-        <v>216</v>
-      </c>
-      <c r="N35" s="7">
-        <v>190315</v>
-      </c>
-      <c r="O35" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="P35" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A36" s="1"/>
-      <c r="B36" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C36" s="7">
-        <v>12</v>
-      </c>
-      <c r="D36" s="7">
-        <v>9304</v>
-      </c>
-      <c r="E36" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="F36" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="H36" s="7">
-        <v>10</v>
-      </c>
-      <c r="I36" s="7">
-        <v>6932</v>
-      </c>
-      <c r="J36" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="K36" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="M36" s="7">
-        <v>22</v>
-      </c>
-      <c r="N36" s="7">
-        <v>16236</v>
-      </c>
-      <c r="O36" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="P36" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A37" s="1"/>
-      <c r="B37" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C37" s="7">
-        <v>3</v>
-      </c>
-      <c r="D37" s="7">
-        <v>2358</v>
-      </c>
-      <c r="E37" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="H37" s="7">
-        <v>2</v>
-      </c>
-      <c r="I37" s="7">
-        <v>1586</v>
-      </c>
-      <c r="J37" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="K37" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="M37" s="7">
-        <v>5</v>
-      </c>
-      <c r="N37" s="7">
-        <v>3944</v>
-      </c>
-      <c r="O37" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="P37" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A38" s="1"/>
-      <c r="B38" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C38" s="7">
-        <v>2</v>
-      </c>
-      <c r="D38" s="7">
-        <v>1684</v>
-      </c>
-      <c r="E38" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="H38" s="7">
-        <v>2</v>
-      </c>
-      <c r="I38" s="7">
-        <v>1396</v>
-      </c>
-      <c r="J38" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="K38" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="M38" s="7">
-        <v>4</v>
-      </c>
-      <c r="N38" s="7">
-        <v>3080</v>
-      </c>
-      <c r="O38" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="P38" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A39" s="1"/>
-      <c r="B39" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C39" s="7">
-        <v>488</v>
-      </c>
-      <c r="D39" s="7">
-        <v>418575</v>
-      </c>
-      <c r="E39" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="F39" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="G39" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="H39" s="7">
-        <v>475</v>
-      </c>
-      <c r="I39" s="7">
-        <v>360562</v>
-      </c>
-      <c r="J39" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="K39" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="L39" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="M39" s="7">
-        <v>963</v>
-      </c>
-      <c r="N39" s="7">
-        <v>779138</v>
-      </c>
-      <c r="O39" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="P39" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q39" s="7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>220</v>
+      <c r="A34" t="s">
+        <v>224</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A16:A21"/>
     <mergeCell ref="A22:A27"/>
     <mergeCell ref="A28:A33"/>
-    <mergeCell ref="A34:A39"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
